--- a/hauntedparadise/Excels/Item_道具表.xlsx
+++ b/hauntedparadise/Excels/Item_道具表.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\hauntedparadise\Excels\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4807AC2A-CCD9-4A8D-9EBE-ECE3E7501614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -18,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="467">
   <si>
     <t>int</t>
   </si>
@@ -178,6 +182,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是否是可消耗品（</t>
@@ -187,7 +192,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>0:false,1true</t>
     </r>
@@ -196,6 +201,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -261,6 +267,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>刷新类型</t>
@@ -270,7 +277,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -279,6 +286,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>脚本里是</t>
@@ -288,7 +296,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>0</t>
     </r>
@@ -297,6 +305,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的话都可以在那个位置刷新</t>
@@ -306,7 +315,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1483,19 +1492,42 @@
   </si>
   <si>
     <t>CameraItem</t>
+  </si>
+  <si>
+    <t>UI_item_100001</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_item_100002</t>
+  </si>
+  <si>
+    <t>UI_item_100003</t>
+  </si>
+  <si>
+    <t>木头</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>石头</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_item_100004</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -1505,384 +1537,56 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1905,361 +1609,193 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+  </cellStyleXfs>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
       <border>
@@ -2270,7 +1806,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="0"/>
       </font>
       <fill>
@@ -2298,149 +1834,32 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2514,6 +1933,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2771,48 +2193,47 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AF130"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AH134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
+      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4166666666667" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.3666666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.4083333333333" style="1" customWidth="1"/>
-    <col min="3" max="4" width="8.64166666666667" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="8.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" style="1" customWidth="1"/>
-    <col min="6" max="9" width="22.4666666666667" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6916666666667" style="1" customWidth="1"/>
+    <col min="6" max="9" width="22.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.75" style="1" customWidth="1"/>
     <col min="11" max="11" width="11.25" style="1" customWidth="1"/>
     <col min="12" max="13" width="15" style="1" customWidth="1"/>
     <col min="14" max="14" width="17.25" style="1" customWidth="1"/>
     <col min="15" max="15" width="17" style="1" customWidth="1"/>
     <col min="16" max="16" width="16.5" style="1" customWidth="1"/>
     <col min="17" max="17" width="12" style="1" customWidth="1"/>
-    <col min="18" max="19" width="7.78333333333333" style="1" customWidth="1"/>
-    <col min="20" max="22" width="10.3666666666667" customWidth="1"/>
-    <col min="23" max="23" width="13.8333333333333" customWidth="1"/>
-    <col min="24" max="26" width="16.4083333333333" style="1" customWidth="1"/>
-    <col min="27" max="27" width="21.7" style="1" customWidth="1"/>
-    <col min="28" max="28" width="10.3666666666667" style="1" customWidth="1"/>
-    <col min="29" max="29" width="28.5083333333333" customWidth="1"/>
-    <col min="30" max="30" width="10.3666666666667" style="1" customWidth="1"/>
-    <col min="31" max="31" width="36.6083333333333" style="1" customWidth="1"/>
-    <col min="32" max="33" width="10.3666666666667" style="1" customWidth="1"/>
-    <col min="34" max="34" width="11.2166666666667" style="1" customWidth="1"/>
+    <col min="18" max="19" width="7.75" style="1" customWidth="1"/>
+    <col min="20" max="22" width="10.375" customWidth="1"/>
+    <col min="23" max="23" width="13.875" customWidth="1"/>
+    <col min="24" max="26" width="16.375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="21.75" style="1" customWidth="1"/>
+    <col min="28" max="28" width="10.375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="28.5" customWidth="1"/>
+    <col min="30" max="30" width="10.375" style="1" customWidth="1"/>
+    <col min="31" max="31" width="36.625" style="1" customWidth="1"/>
+    <col min="32" max="33" width="10.375" style="1" customWidth="1"/>
+    <col min="34" max="34" width="11.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" spans="1:32">
+    <row r="1" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2861,7 +2282,7 @@
       <c r="P1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="R1" s="2" t="s">
@@ -2910,7 +2331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="21" customHeight="1" spans="1:32">
+    <row r="2" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -2959,7 +2380,7 @@
       <c r="P2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="6" t="s">
         <v>23</v>
       </c>
       <c r="R2" s="2" t="s">
@@ -3008,7 +2429,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" ht="31.75" customHeight="1" spans="1:32">
+    <row r="3" spans="1:32" ht="31.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -3039,25 +2460,25 @@
       <c r="J3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="6" t="s">
         <v>55</v>
       </c>
       <c r="R3" s="1" t="s">
@@ -3078,13 +2499,13 @@
       <c r="W3" t="s">
         <v>61</v>
       </c>
-      <c r="X3" s="6" t="s">
+      <c r="X3" s="5" t="s">
         <v>62</v>
       </c>
       <c r="AA3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AB3" s="9" t="s">
+      <c r="AB3" s="8" t="s">
         <v>64</v>
       </c>
       <c r="AC3" t="s">
@@ -3100,7 +2521,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" ht="18" customHeight="1" spans="2:9">
+    <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>69</v>
       </c>
@@ -3115,7 +2536,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" ht="21" customHeight="1" spans="1:31">
+    <row r="5" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -3156,7 +2577,7 @@
       <c r="Q5" s="1">
         <v>1</v>
       </c>
-      <c r="R5" s="8" t="s">
+      <c r="R5" s="7" t="s">
         <v>72</v>
       </c>
       <c r="U5" t="s">
@@ -3176,10 +2597,10 @@
       <c r="AA5" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB5" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="10" t="s">
+      <c r="AB5">
+        <v>1</v>
+      </c>
+      <c r="AC5" t="s">
         <v>76</v>
       </c>
       <c r="AD5" s="2"/>
@@ -3187,7 +2608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="21" customHeight="1" spans="1:31">
+    <row r="6" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -3245,10 +2666,10 @@
       <c r="AA6" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB6" s="5">
+      <c r="AB6">
         <v>2</v>
       </c>
-      <c r="AC6" s="10" t="s">
+      <c r="AC6" t="s">
         <v>79</v>
       </c>
       <c r="AD6" s="2"/>
@@ -3256,7 +2677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="21" customHeight="1" spans="1:31">
+    <row r="7" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -3294,7 +2715,7 @@
       <c r="Q7" s="1">
         <v>1</v>
       </c>
-      <c r="R7" s="8" t="s">
+      <c r="R7" s="7" t="s">
         <v>81</v>
       </c>
       <c r="U7" t="s">
@@ -3314,10 +2735,10 @@
       <c r="AA7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB7" s="5">
+      <c r="AB7">
         <v>3</v>
       </c>
-      <c r="AC7" s="10" t="s">
+      <c r="AC7" t="s">
         <v>82</v>
       </c>
       <c r="AD7" s="2"/>
@@ -3325,7 +2746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="21" customHeight="1" spans="1:31">
+    <row r="8" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -3363,7 +2784,7 @@
       <c r="Q8" s="1">
         <v>1</v>
       </c>
-      <c r="R8" s="6" t="s">
+      <c r="R8" s="5" t="s">
         <v>84</v>
       </c>
       <c r="U8" t="s">
@@ -3383,10 +2804,10 @@
       <c r="AA8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB8" s="5">
+      <c r="AB8">
         <v>4</v>
       </c>
-      <c r="AC8" s="10" t="s">
+      <c r="AC8" t="s">
         <v>85</v>
       </c>
       <c r="AD8" s="2"/>
@@ -3394,7 +2815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="21" customHeight="1" spans="1:31">
+    <row r="9" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -3432,7 +2853,7 @@
       <c r="Q9" s="1">
         <v>1</v>
       </c>
-      <c r="R9" s="8" t="s">
+      <c r="R9" s="7" t="s">
         <v>87</v>
       </c>
       <c r="U9" t="s">
@@ -3452,10 +2873,10 @@
       <c r="AA9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB9" s="5">
+      <c r="AB9">
         <v>5</v>
       </c>
-      <c r="AC9" s="10" t="s">
+      <c r="AC9" t="s">
         <v>88</v>
       </c>
       <c r="AD9" s="2"/>
@@ -3463,7 +2884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="21" customHeight="1" spans="1:31">
+    <row r="10" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -3521,10 +2942,10 @@
       <c r="AA10" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB10" s="5">
+      <c r="AB10">
         <v>6</v>
       </c>
-      <c r="AC10" s="10" t="s">
+      <c r="AC10" t="s">
         <v>91</v>
       </c>
       <c r="AD10" s="2"/>
@@ -3532,7 +2953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="21" customHeight="1" spans="1:31">
+    <row r="11" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -3590,10 +3011,10 @@
       <c r="AA11" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB11" s="5">
+      <c r="AB11">
         <v>7</v>
       </c>
-      <c r="AC11" s="10" t="s">
+      <c r="AC11" t="s">
         <v>94</v>
       </c>
       <c r="AD11" s="2"/>
@@ -3601,7 +3022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="21" customHeight="1" spans="1:31">
+    <row r="12" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -3639,7 +3060,7 @@
       <c r="Q12" s="1">
         <v>1</v>
       </c>
-      <c r="R12" s="6" t="s">
+      <c r="R12" s="5" t="s">
         <v>96</v>
       </c>
       <c r="U12" t="s">
@@ -3659,10 +3080,10 @@
       <c r="AA12" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB12" s="5">
+      <c r="AB12">
         <v>8</v>
       </c>
-      <c r="AC12" s="10" t="s">
+      <c r="AC12" t="s">
         <v>97</v>
       </c>
       <c r="AD12" s="2"/>
@@ -3670,7 +3091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="21" customHeight="1" spans="1:31">
+    <row r="13" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -3708,7 +3129,7 @@
       <c r="Q13" s="1">
         <v>1</v>
       </c>
-      <c r="R13" s="8" t="s">
+      <c r="R13" s="7" t="s">
         <v>99</v>
       </c>
       <c r="U13" t="s">
@@ -3728,10 +3149,10 @@
       <c r="AA13" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB13" s="5">
+      <c r="AB13">
         <v>9</v>
       </c>
-      <c r="AC13" s="10" t="s">
+      <c r="AC13" t="s">
         <v>100</v>
       </c>
       <c r="AD13" s="2"/>
@@ -3739,7 +3160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="21" customHeight="1" spans="1:31">
+    <row r="14" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -3777,7 +3198,7 @@
       <c r="Q14" s="1">
         <v>1</v>
       </c>
-      <c r="R14" s="8" t="s">
+      <c r="R14" s="7" t="s">
         <v>102</v>
       </c>
       <c r="U14" t="s">
@@ -3797,10 +3218,10 @@
       <c r="AA14" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB14" s="5">
+      <c r="AB14">
         <v>10</v>
       </c>
-      <c r="AC14" s="10" t="s">
+      <c r="AC14" t="s">
         <v>103</v>
       </c>
       <c r="AD14" s="2"/>
@@ -3808,7 +3229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="21" customHeight="1" spans="1:31">
+    <row r="15" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -3846,7 +3267,7 @@
       <c r="Q15" s="1">
         <v>1</v>
       </c>
-      <c r="R15" s="8" t="s">
+      <c r="R15" s="7" t="s">
         <v>105</v>
       </c>
       <c r="U15" t="s">
@@ -3866,10 +3287,10 @@
       <c r="AA15" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB15" s="5">
+      <c r="AB15">
         <v>11</v>
       </c>
-      <c r="AC15" s="10" t="s">
+      <c r="AC15" t="s">
         <v>106</v>
       </c>
       <c r="AD15" s="2"/>
@@ -3877,7 +3298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="21" customHeight="1" spans="1:31">
+    <row r="16" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -3915,7 +3336,7 @@
       <c r="Q16" s="1">
         <v>1</v>
       </c>
-      <c r="R16" s="8" t="s">
+      <c r="R16" s="7" t="s">
         <v>108</v>
       </c>
       <c r="U16" t="s">
@@ -3935,10 +3356,10 @@
       <c r="AA16" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB16" s="5">
+      <c r="AB16">
         <v>12</v>
       </c>
-      <c r="AC16" s="10" t="s">
+      <c r="AC16" t="s">
         <v>109</v>
       </c>
       <c r="AD16" s="2"/>
@@ -3946,7 +3367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="21" customHeight="1" spans="1:31">
+    <row r="17" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -3984,7 +3405,7 @@
       <c r="Q17" s="1">
         <v>1</v>
       </c>
-      <c r="R17" s="8" t="s">
+      <c r="R17" s="7" t="s">
         <v>111</v>
       </c>
       <c r="U17" t="s">
@@ -4004,10 +3425,10 @@
       <c r="AA17" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB17" s="5">
+      <c r="AB17">
         <v>13</v>
       </c>
-      <c r="AC17" s="10" t="s">
+      <c r="AC17" t="s">
         <v>112</v>
       </c>
       <c r="AD17" s="2"/>
@@ -4015,7 +3436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="21" customHeight="1" spans="1:31">
+    <row r="18" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -4053,7 +3474,7 @@
       <c r="Q18" s="1">
         <v>1</v>
       </c>
-      <c r="R18" s="8" t="s">
+      <c r="R18" s="7" t="s">
         <v>114</v>
       </c>
       <c r="U18" t="s">
@@ -4073,10 +3494,10 @@
       <c r="AA18" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB18" s="5">
+      <c r="AB18">
         <v>14</v>
       </c>
-      <c r="AC18" s="10" t="s">
+      <c r="AC18" t="s">
         <v>115</v>
       </c>
       <c r="AD18" s="2"/>
@@ -4084,7 +3505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="21" customHeight="1" spans="1:31">
+    <row r="19" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -4122,7 +3543,7 @@
       <c r="Q19" s="1">
         <v>1</v>
       </c>
-      <c r="R19" s="8" t="s">
+      <c r="R19" s="7" t="s">
         <v>117</v>
       </c>
       <c r="U19" t="s">
@@ -4142,10 +3563,10 @@
       <c r="AA19" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB19" s="5">
+      <c r="AB19">
         <v>15</v>
       </c>
-      <c r="AC19" s="10" t="s">
+      <c r="AC19" t="s">
         <v>118</v>
       </c>
       <c r="AD19" s="2"/>
@@ -4153,7 +3574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" ht="21" customHeight="1" spans="2:30">
+    <row r="20" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -4161,7 +3582,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-      <c r="R20" s="8"/>
+      <c r="R20" s="7"/>
       <c r="U20" t="s">
         <v>73</v>
       </c>
@@ -4175,12 +3596,11 @@
       <c r="Y20" s="3"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="10"/>
+      <c r="AB20"/>
       <c r="AD20" s="2"/>
     </row>
-    <row r="21" spans="1:31">
-      <c r="A21" s="5">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A21">
         <v>1001</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -4237,18 +3657,18 @@
       <c r="AA21" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB21" s="5">
+      <c r="AB21">
         <v>1001</v>
       </c>
-      <c r="AC21" s="10" t="s">
+      <c r="AC21" t="s">
         <v>121</v>
       </c>
       <c r="AE21" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:31">
-      <c r="A22" s="5">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A22">
         <v>1002</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -4305,18 +3725,18 @@
       <c r="AA22" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB22" s="5">
+      <c r="AB22">
         <v>1002</v>
       </c>
-      <c r="AC22" s="10" t="s">
+      <c r="AC22" t="s">
         <v>124</v>
       </c>
       <c r="AE22" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:31">
-      <c r="A23" s="5">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A23">
         <v>1003</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -4373,18 +3793,18 @@
       <c r="AA23" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB23" s="5">
+      <c r="AB23">
         <v>1003</v>
       </c>
-      <c r="AC23" s="10" t="s">
+      <c r="AC23" t="s">
         <v>127</v>
       </c>
       <c r="AE23" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:31">
-      <c r="A24" s="5">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A24">
         <v>1004</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -4441,18 +3861,18 @@
       <c r="AA24" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB24" s="5">
+      <c r="AB24">
         <v>1004</v>
       </c>
-      <c r="AC24" s="10" t="s">
+      <c r="AC24" t="s">
         <v>130</v>
       </c>
       <c r="AE24" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:31">
-      <c r="A25" s="5">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A25">
         <v>1005</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -4509,18 +3929,18 @@
       <c r="AA25" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB25" s="5">
+      <c r="AB25">
         <v>1005</v>
       </c>
-      <c r="AC25" s="10" t="s">
+      <c r="AC25" t="s">
         <v>133</v>
       </c>
       <c r="AE25" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:31">
-      <c r="A26" s="5">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A26">
         <v>1006</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -4577,18 +3997,18 @@
       <c r="AA26" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB26" s="5">
+      <c r="AB26">
         <v>1006</v>
       </c>
-      <c r="AC26" s="10" t="s">
+      <c r="AC26" t="s">
         <v>136</v>
       </c>
       <c r="AE26" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:31">
-      <c r="A27" s="5">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A27">
         <v>1007</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -4645,18 +4065,18 @@
       <c r="AA27" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB27" s="5">
+      <c r="AB27">
         <v>1007</v>
       </c>
-      <c r="AC27" s="10" t="s">
+      <c r="AC27" t="s">
         <v>139</v>
       </c>
       <c r="AE27" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:31">
-      <c r="A28" s="5">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A28">
         <v>1008</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -4713,18 +4133,18 @@
       <c r="AA28" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB28" s="5">
+      <c r="AB28">
         <v>1008</v>
       </c>
-      <c r="AC28" s="10" t="s">
+      <c r="AC28" t="s">
         <v>142</v>
       </c>
       <c r="AE28" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:31">
-      <c r="A29" s="5">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A29">
         <v>1009</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -4781,18 +4201,18 @@
       <c r="AA29" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB29" s="5">
+      <c r="AB29">
         <v>1009</v>
       </c>
-      <c r="AC29" s="10" t="s">
+      <c r="AC29" t="s">
         <v>145</v>
       </c>
       <c r="AE29" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:31">
-      <c r="A30" s="5">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A30">
         <v>1010</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -4849,18 +4269,18 @@
       <c r="AA30" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB30" s="5">
+      <c r="AB30">
         <v>1010</v>
       </c>
-      <c r="AC30" s="10" t="s">
+      <c r="AC30" t="s">
         <v>148</v>
       </c>
       <c r="AE30" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:31">
-      <c r="A31" s="5">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A31">
         <v>1011</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -4917,18 +4337,18 @@
       <c r="AA31" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB31" s="5">
+      <c r="AB31">
         <v>1011</v>
       </c>
-      <c r="AC31" s="10" t="s">
+      <c r="AC31" t="s">
         <v>151</v>
       </c>
       <c r="AE31" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:31">
-      <c r="A32" s="5">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A32">
         <v>1012</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -4985,18 +4405,18 @@
       <c r="AA32" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB32" s="5">
+      <c r="AB32">
         <v>1012</v>
       </c>
-      <c r="AC32" s="10" t="s">
+      <c r="AC32" t="s">
         <v>154</v>
       </c>
       <c r="AE32" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:31">
-      <c r="A33" s="5">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A33">
         <v>1013</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -5053,24 +4473,24 @@
       <c r="AA33" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB33" s="5">
+      <c r="AB33">
         <v>1013</v>
       </c>
-      <c r="AC33" s="10" t="s">
+      <c r="AC33" t="s">
         <v>157</v>
       </c>
       <c r="AE33" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:29">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
-      <c r="R34" s="6"/>
+      <c r="R34" s="5"/>
       <c r="U34" t="s">
         <v>73</v>
       </c>
@@ -5084,9 +4504,8 @@
       <c r="Y34" s="3"/>
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
-      <c r="AC34" s="10"/>
-    </row>
-    <row r="35" spans="1:31">
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>101</v>
       </c>
@@ -5124,7 +4543,7 @@
       <c r="Q35" s="1">
         <v>1</v>
       </c>
-      <c r="R35" s="5" t="s">
+      <c r="R35" t="s">
         <v>159</v>
       </c>
       <c r="U35" t="s">
@@ -5144,17 +4563,17 @@
       <c r="AA35" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB35" s="5">
+      <c r="AB35">
         <v>101</v>
       </c>
-      <c r="AC35" s="10" t="s">
+      <c r="AC35" t="s">
         <v>160</v>
       </c>
       <c r="AE35" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:31">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>102</v>
       </c>
@@ -5192,7 +4611,7 @@
       <c r="Q36" s="1">
         <v>1</v>
       </c>
-      <c r="R36" s="5" t="s">
+      <c r="R36" t="s">
         <v>162</v>
       </c>
       <c r="U36" t="s">
@@ -5212,17 +4631,17 @@
       <c r="AA36" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB36" s="5">
+      <c r="AB36">
         <v>102</v>
       </c>
-      <c r="AC36" s="10" t="s">
+      <c r="AC36" t="s">
         <v>163</v>
       </c>
       <c r="AE36" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:31">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>103</v>
       </c>
@@ -5260,7 +4679,7 @@
       <c r="Q37" s="1">
         <v>1</v>
       </c>
-      <c r="R37" s="5" t="s">
+      <c r="R37" t="s">
         <v>165</v>
       </c>
       <c r="U37" t="s">
@@ -5280,17 +4699,17 @@
       <c r="AA37" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB37" s="5">
+      <c r="AB37">
         <v>103</v>
       </c>
-      <c r="AC37" s="10" t="s">
+      <c r="AC37" t="s">
         <v>166</v>
       </c>
       <c r="AE37" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:31">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>104</v>
       </c>
@@ -5328,7 +4747,7 @@
       <c r="Q38" s="1">
         <v>1</v>
       </c>
-      <c r="R38" s="5" t="s">
+      <c r="R38" t="s">
         <v>168</v>
       </c>
       <c r="U38" t="s">
@@ -5348,17 +4767,17 @@
       <c r="AA38" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB38" s="5">
+      <c r="AB38">
         <v>104</v>
       </c>
-      <c r="AC38" s="10" t="s">
+      <c r="AC38" t="s">
         <v>169</v>
       </c>
       <c r="AE38" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:31">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>105</v>
       </c>
@@ -5396,7 +4815,7 @@
       <c r="Q39" s="1">
         <v>1</v>
       </c>
-      <c r="R39" s="5" t="s">
+      <c r="R39" t="s">
         <v>171</v>
       </c>
       <c r="U39" t="s">
@@ -5416,17 +4835,17 @@
       <c r="AA39" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB39" s="5">
+      <c r="AB39">
         <v>105</v>
       </c>
-      <c r="AC39" s="10" t="s">
+      <c r="AC39" t="s">
         <v>172</v>
       </c>
       <c r="AE39" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:31">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>106</v>
       </c>
@@ -5464,7 +4883,7 @@
       <c r="Q40" s="1">
         <v>1</v>
       </c>
-      <c r="R40" s="5" t="s">
+      <c r="R40" t="s">
         <v>174</v>
       </c>
       <c r="U40" t="s">
@@ -5484,17 +4903,17 @@
       <c r="AA40" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB40" s="5">
+      <c r="AB40">
         <v>106</v>
       </c>
-      <c r="AC40" s="10" t="s">
+      <c r="AC40" t="s">
         <v>175</v>
       </c>
       <c r="AE40" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:31">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>107</v>
       </c>
@@ -5532,7 +4951,7 @@
       <c r="Q41" s="1">
         <v>1</v>
       </c>
-      <c r="R41" s="5" t="s">
+      <c r="R41" t="s">
         <v>177</v>
       </c>
       <c r="U41" t="s">
@@ -5552,17 +4971,17 @@
       <c r="AA41" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB41" s="5">
+      <c r="AB41">
         <v>107</v>
       </c>
-      <c r="AC41" s="10" t="s">
+      <c r="AC41" t="s">
         <v>178</v>
       </c>
       <c r="AE41" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:31">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>108</v>
       </c>
@@ -5600,7 +5019,7 @@
       <c r="Q42" s="1">
         <v>1</v>
       </c>
-      <c r="R42" s="5" t="s">
+      <c r="R42" t="s">
         <v>180</v>
       </c>
       <c r="U42" t="s">
@@ -5620,17 +5039,17 @@
       <c r="AA42" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB42" s="5">
+      <c r="AB42">
         <v>108</v>
       </c>
-      <c r="AC42" s="10" t="s">
+      <c r="AC42" t="s">
         <v>181</v>
       </c>
       <c r="AE42" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:31">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>109</v>
       </c>
@@ -5668,7 +5087,7 @@
       <c r="Q43" s="1">
         <v>1</v>
       </c>
-      <c r="R43" s="5" t="s">
+      <c r="R43" t="s">
         <v>183</v>
       </c>
       <c r="U43" t="s">
@@ -5688,17 +5107,17 @@
       <c r="AA43" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB43" s="5">
+      <c r="AB43">
         <v>109</v>
       </c>
-      <c r="AC43" s="10" t="s">
+      <c r="AC43" t="s">
         <v>184</v>
       </c>
       <c r="AE43" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:31">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>110</v>
       </c>
@@ -5736,7 +5155,7 @@
       <c r="Q44" s="1">
         <v>1</v>
       </c>
-      <c r="R44" s="5" t="s">
+      <c r="R44" t="s">
         <v>186</v>
       </c>
       <c r="U44" t="s">
@@ -5756,17 +5175,17 @@
       <c r="AA44" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB44" s="5">
+      <c r="AB44">
         <v>110</v>
       </c>
-      <c r="AC44" s="10" t="s">
+      <c r="AC44" t="s">
         <v>187</v>
       </c>
       <c r="AE44" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:31">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>111</v>
       </c>
@@ -5804,7 +5223,7 @@
       <c r="Q45" s="1">
         <v>1</v>
       </c>
-      <c r="R45" s="5" t="s">
+      <c r="R45" t="s">
         <v>189</v>
       </c>
       <c r="U45" t="s">
@@ -5824,17 +5243,17 @@
       <c r="AA45" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB45" s="5">
+      <c r="AB45">
         <v>111</v>
       </c>
-      <c r="AC45" s="10" t="s">
+      <c r="AC45" t="s">
         <v>190</v>
       </c>
       <c r="AE45" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:31">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>112</v>
       </c>
@@ -5872,7 +5291,7 @@
       <c r="Q46" s="1">
         <v>1</v>
       </c>
-      <c r="R46" s="5" t="s">
+      <c r="R46" t="s">
         <v>192</v>
       </c>
       <c r="U46" t="s">
@@ -5892,17 +5311,17 @@
       <c r="AA46" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB46" s="5">
+      <c r="AB46">
         <v>112</v>
       </c>
-      <c r="AC46" s="10" t="s">
+      <c r="AC46" t="s">
         <v>193</v>
       </c>
       <c r="AE46" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:31">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>113</v>
       </c>
@@ -5940,7 +5359,7 @@
       <c r="Q47" s="1">
         <v>1</v>
       </c>
-      <c r="R47" s="5" t="s">
+      <c r="R47" t="s">
         <v>195</v>
       </c>
       <c r="U47" t="s">
@@ -5960,17 +5379,17 @@
       <c r="AA47" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB47" s="5">
+      <c r="AB47">
         <v>113</v>
       </c>
-      <c r="AC47" s="10" t="s">
+      <c r="AC47" t="s">
         <v>196</v>
       </c>
       <c r="AE47" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:31">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>114</v>
       </c>
@@ -6008,7 +5427,7 @@
       <c r="Q48" s="1">
         <v>1</v>
       </c>
-      <c r="R48" s="5" t="s">
+      <c r="R48" t="s">
         <v>198</v>
       </c>
       <c r="U48" t="s">
@@ -6028,17 +5447,17 @@
       <c r="AA48" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB48" s="5">
+      <c r="AB48">
         <v>114</v>
       </c>
-      <c r="AC48" s="10" t="s">
+      <c r="AC48" t="s">
         <v>199</v>
       </c>
       <c r="AE48" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:31">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>115</v>
       </c>
@@ -6076,7 +5495,7 @@
       <c r="Q49" s="1">
         <v>1</v>
       </c>
-      <c r="R49" s="5" t="s">
+      <c r="R49" t="s">
         <v>201</v>
       </c>
       <c r="U49" t="s">
@@ -6096,17 +5515,17 @@
       <c r="AA49" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB49" s="5">
+      <c r="AB49">
         <v>115</v>
       </c>
-      <c r="AC49" s="10" t="s">
+      <c r="AC49" t="s">
         <v>202</v>
       </c>
       <c r="AE49" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:31">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>116</v>
       </c>
@@ -6144,7 +5563,7 @@
       <c r="Q50" s="1">
         <v>1</v>
       </c>
-      <c r="R50" s="5" t="s">
+      <c r="R50" t="s">
         <v>204</v>
       </c>
       <c r="U50" t="s">
@@ -6164,17 +5583,17 @@
       <c r="AA50" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB50" s="5">
+      <c r="AB50">
         <v>116</v>
       </c>
-      <c r="AC50" s="10" t="s">
+      <c r="AC50" t="s">
         <v>205</v>
       </c>
       <c r="AE50" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:31">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>117</v>
       </c>
@@ -6212,7 +5631,7 @@
       <c r="Q51" s="1">
         <v>1</v>
       </c>
-      <c r="R51" s="5" t="s">
+      <c r="R51" t="s">
         <v>174</v>
       </c>
       <c r="U51" t="s">
@@ -6232,17 +5651,17 @@
       <c r="AA51" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB51" s="5">
+      <c r="AB51">
         <v>117</v>
       </c>
-      <c r="AC51" s="10" t="s">
+      <c r="AC51" t="s">
         <v>207</v>
       </c>
       <c r="AE51" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:31">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>118</v>
       </c>
@@ -6280,7 +5699,7 @@
       <c r="Q52" s="1">
         <v>1</v>
       </c>
-      <c r="R52" s="5" t="s">
+      <c r="R52" t="s">
         <v>209</v>
       </c>
       <c r="U52" t="s">
@@ -6300,17 +5719,17 @@
       <c r="AA52" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB52" s="5">
+      <c r="AB52">
         <v>118</v>
       </c>
-      <c r="AC52" s="10" t="s">
+      <c r="AC52" t="s">
         <v>210</v>
       </c>
       <c r="AE52" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:31">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>119</v>
       </c>
@@ -6348,7 +5767,7 @@
       <c r="Q53" s="1">
         <v>1</v>
       </c>
-      <c r="R53" s="5" t="s">
+      <c r="R53" t="s">
         <v>212</v>
       </c>
       <c r="U53" t="s">
@@ -6368,17 +5787,17 @@
       <c r="AA53" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB53" s="5">
+      <c r="AB53">
         <v>119</v>
       </c>
-      <c r="AC53" s="10" t="s">
+      <c r="AC53" t="s">
         <v>213</v>
       </c>
       <c r="AE53" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:31">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>120</v>
       </c>
@@ -6416,7 +5835,7 @@
       <c r="Q54" s="1">
         <v>1</v>
       </c>
-      <c r="R54" s="5" t="s">
+      <c r="R54" t="s">
         <v>215</v>
       </c>
       <c r="U54" t="s">
@@ -6436,17 +5855,17 @@
       <c r="AA54" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB54" s="5">
+      <c r="AB54">
         <v>120</v>
       </c>
-      <c r="AC54" s="10" t="s">
+      <c r="AC54" t="s">
         <v>216</v>
       </c>
       <c r="AE54" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:31">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>121</v>
       </c>
@@ -6484,7 +5903,7 @@
       <c r="Q55" s="1">
         <v>1</v>
       </c>
-      <c r="R55" s="5" t="s">
+      <c r="R55" t="s">
         <v>218</v>
       </c>
       <c r="U55" t="s">
@@ -6504,17 +5923,17 @@
       <c r="AA55" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB55" s="5">
+      <c r="AB55">
         <v>121</v>
       </c>
-      <c r="AC55" s="10" t="s">
+      <c r="AC55" t="s">
         <v>219</v>
       </c>
       <c r="AE55" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:31">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>122</v>
       </c>
@@ -6552,7 +5971,7 @@
       <c r="Q56" s="1">
         <v>1</v>
       </c>
-      <c r="R56" s="5" t="s">
+      <c r="R56" t="s">
         <v>221</v>
       </c>
       <c r="U56" t="s">
@@ -6572,17 +5991,17 @@
       <c r="AA56" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB56" s="5">
+      <c r="AB56">
         <v>122</v>
       </c>
-      <c r="AC56" s="10" t="s">
+      <c r="AC56" t="s">
         <v>222</v>
       </c>
       <c r="AE56" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:31">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>123</v>
       </c>
@@ -6620,7 +6039,7 @@
       <c r="Q57" s="1">
         <v>1</v>
       </c>
-      <c r="R57" s="5" t="s">
+      <c r="R57" t="s">
         <v>224</v>
       </c>
       <c r="U57" t="s">
@@ -6640,17 +6059,17 @@
       <c r="AA57" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB57" s="5">
+      <c r="AB57">
         <v>123</v>
       </c>
-      <c r="AC57" s="10" t="s">
+      <c r="AC57" t="s">
         <v>225</v>
       </c>
       <c r="AE57" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:31">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>124</v>
       </c>
@@ -6688,7 +6107,7 @@
       <c r="Q58" s="1">
         <v>1</v>
       </c>
-      <c r="R58" s="5" t="s">
+      <c r="R58" t="s">
         <v>177</v>
       </c>
       <c r="U58" t="s">
@@ -6708,17 +6127,17 @@
       <c r="AA58" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB58" s="5">
+      <c r="AB58">
         <v>124</v>
       </c>
-      <c r="AC58" s="10" t="s">
+      <c r="AC58" t="s">
         <v>227</v>
       </c>
       <c r="AE58" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:31">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>125</v>
       </c>
@@ -6756,7 +6175,7 @@
       <c r="Q59" s="1">
         <v>1</v>
       </c>
-      <c r="R59" s="5" t="s">
+      <c r="R59" t="s">
         <v>229</v>
       </c>
       <c r="U59" t="s">
@@ -6776,17 +6195,17 @@
       <c r="AA59" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB59" s="5">
+      <c r="AB59">
         <v>125</v>
       </c>
-      <c r="AC59" s="10" t="s">
+      <c r="AC59" t="s">
         <v>230</v>
       </c>
       <c r="AE59" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:31">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>126</v>
       </c>
@@ -6824,7 +6243,7 @@
       <c r="Q60" s="1">
         <v>1</v>
       </c>
-      <c r="R60" s="5" t="s">
+      <c r="R60" t="s">
         <v>198</v>
       </c>
       <c r="U60" t="s">
@@ -6844,17 +6263,17 @@
       <c r="AA60" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB60" s="5">
+      <c r="AB60">
         <v>126</v>
       </c>
-      <c r="AC60" s="10" t="s">
+      <c r="AC60" t="s">
         <v>232</v>
       </c>
       <c r="AE60" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:31">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>127</v>
       </c>
@@ -6892,7 +6311,7 @@
       <c r="Q61" s="1">
         <v>1</v>
       </c>
-      <c r="R61" s="5" t="s">
+      <c r="R61" t="s">
         <v>180</v>
       </c>
       <c r="U61" t="s">
@@ -6912,17 +6331,17 @@
       <c r="AA61" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB61" s="5">
+      <c r="AB61">
         <v>127</v>
       </c>
-      <c r="AC61" s="10" t="s">
+      <c r="AC61" t="s">
         <v>234</v>
       </c>
       <c r="AE61" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:31">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>128</v>
       </c>
@@ -6960,7 +6379,7 @@
       <c r="Q62" s="1">
         <v>1</v>
       </c>
-      <c r="R62" s="5" t="s">
+      <c r="R62" t="s">
         <v>165</v>
       </c>
       <c r="U62" t="s">
@@ -6980,17 +6399,17 @@
       <c r="AA62" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB62" s="5">
+      <c r="AB62">
         <v>128</v>
       </c>
-      <c r="AC62" s="10" t="s">
+      <c r="AC62" t="s">
         <v>236</v>
       </c>
       <c r="AE62" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:31">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>129</v>
       </c>
@@ -7028,7 +6447,7 @@
       <c r="Q63" s="1">
         <v>1</v>
       </c>
-      <c r="R63" s="5" t="s">
+      <c r="R63" t="s">
         <v>183</v>
       </c>
       <c r="U63" t="s">
@@ -7048,17 +6467,17 @@
       <c r="AA63" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB63" s="5">
+      <c r="AB63">
         <v>129</v>
       </c>
-      <c r="AC63" s="10" t="s">
+      <c r="AC63" t="s">
         <v>238</v>
       </c>
       <c r="AE63" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:31">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>130</v>
       </c>
@@ -7096,7 +6515,7 @@
       <c r="Q64" s="1">
         <v>1</v>
       </c>
-      <c r="R64" s="5" t="s">
+      <c r="R64" t="s">
         <v>240</v>
       </c>
       <c r="U64" t="s">
@@ -7116,17 +6535,17 @@
       <c r="AA64" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB64" s="5">
+      <c r="AB64">
         <v>130</v>
       </c>
-      <c r="AC64" s="10" t="s">
+      <c r="AC64" t="s">
         <v>241</v>
       </c>
       <c r="AE64" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:31">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>131</v>
       </c>
@@ -7164,7 +6583,7 @@
       <c r="Q65" s="1">
         <v>1</v>
       </c>
-      <c r="R65" s="5" t="s">
+      <c r="R65" t="s">
         <v>243</v>
       </c>
       <c r="U65" t="s">
@@ -7184,17 +6603,17 @@
       <c r="AA65" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB65" s="5">
+      <c r="AB65">
         <v>131</v>
       </c>
-      <c r="AC65" s="10" t="s">
+      <c r="AC65" t="s">
         <v>244</v>
       </c>
       <c r="AE65" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:31">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>132</v>
       </c>
@@ -7232,7 +6651,7 @@
       <c r="Q66" s="1">
         <v>1</v>
       </c>
-      <c r="R66" s="5" t="s">
+      <c r="R66" t="s">
         <v>180</v>
       </c>
       <c r="U66" t="s">
@@ -7252,17 +6671,17 @@
       <c r="AA66" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB66" s="5">
+      <c r="AB66">
         <v>132</v>
       </c>
-      <c r="AC66" s="10" t="s">
+      <c r="AC66" t="s">
         <v>246</v>
       </c>
       <c r="AE66" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:31">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>133</v>
       </c>
@@ -7300,7 +6719,7 @@
       <c r="Q67" s="1">
         <v>1</v>
       </c>
-      <c r="R67" s="5" t="s">
+      <c r="R67" t="s">
         <v>198</v>
       </c>
       <c r="U67" t="s">
@@ -7320,17 +6739,17 @@
       <c r="AA67" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB67" s="5">
+      <c r="AB67">
         <v>133</v>
       </c>
-      <c r="AC67" s="10" t="s">
+      <c r="AC67" t="s">
         <v>248</v>
       </c>
       <c r="AE67" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:31">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>134</v>
       </c>
@@ -7368,7 +6787,7 @@
       <c r="Q68" s="1">
         <v>1</v>
       </c>
-      <c r="R68" s="5" t="s">
+      <c r="R68" t="s">
         <v>174</v>
       </c>
       <c r="U68" t="s">
@@ -7388,17 +6807,17 @@
       <c r="AA68" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB68" s="5">
+      <c r="AB68">
         <v>134</v>
       </c>
-      <c r="AC68" s="10" t="s">
+      <c r="AC68" t="s">
         <v>250</v>
       </c>
       <c r="AE68" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:31">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>135</v>
       </c>
@@ -7436,7 +6855,7 @@
       <c r="Q69" s="1">
         <v>1</v>
       </c>
-      <c r="R69" s="5" t="s">
+      <c r="R69" t="s">
         <v>252</v>
       </c>
       <c r="U69" t="s">
@@ -7456,17 +6875,17 @@
       <c r="AA69" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB69" s="5">
+      <c r="AB69">
         <v>135</v>
       </c>
-      <c r="AC69" s="10" t="s">
+      <c r="AC69" t="s">
         <v>253</v>
       </c>
       <c r="AE69" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:31">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>136</v>
       </c>
@@ -7504,7 +6923,7 @@
       <c r="Q70" s="1">
         <v>1</v>
       </c>
-      <c r="R70" s="5" t="s">
+      <c r="R70" t="s">
         <v>255</v>
       </c>
       <c r="U70" t="s">
@@ -7524,17 +6943,17 @@
       <c r="AA70" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB70" s="5">
+      <c r="AB70">
         <v>136</v>
       </c>
-      <c r="AC70" s="10" t="s">
+      <c r="AC70" t="s">
         <v>256</v>
       </c>
       <c r="AE70" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:31">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>137</v>
       </c>
@@ -7572,7 +6991,7 @@
       <c r="Q71" s="1">
         <v>1</v>
       </c>
-      <c r="R71" s="5" t="s">
+      <c r="R71" t="s">
         <v>177</v>
       </c>
       <c r="U71" t="s">
@@ -7592,17 +7011,17 @@
       <c r="AA71" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB71" s="5">
+      <c r="AB71">
         <v>137</v>
       </c>
-      <c r="AC71" s="10" t="s">
+      <c r="AC71" t="s">
         <v>258</v>
       </c>
       <c r="AE71" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:31">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>138</v>
       </c>
@@ -7640,7 +7059,7 @@
       <c r="Q72" s="1">
         <v>1</v>
       </c>
-      <c r="R72" s="5" t="s">
+      <c r="R72" t="s">
         <v>229</v>
       </c>
       <c r="U72" t="s">
@@ -7660,17 +7079,17 @@
       <c r="AA72" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB72" s="5">
+      <c r="AB72">
         <v>138</v>
       </c>
-      <c r="AC72" s="10" t="s">
+      <c r="AC72" t="s">
         <v>260</v>
       </c>
       <c r="AE72" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:31">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>139</v>
       </c>
@@ -7708,7 +7127,7 @@
       <c r="Q73" s="1">
         <v>1</v>
       </c>
-      <c r="R73" s="5" t="s">
+      <c r="R73" t="s">
         <v>262</v>
       </c>
       <c r="U73" t="s">
@@ -7728,17 +7147,17 @@
       <c r="AA73" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB73" s="5">
+      <c r="AB73">
         <v>139</v>
       </c>
-      <c r="AC73" s="10" t="s">
+      <c r="AC73" t="s">
         <v>263</v>
       </c>
       <c r="AE73" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:31">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>140</v>
       </c>
@@ -7776,7 +7195,7 @@
       <c r="Q74" s="1">
         <v>1</v>
       </c>
-      <c r="R74" s="5" t="s">
+      <c r="R74" t="s">
         <v>168</v>
       </c>
       <c r="U74" t="s">
@@ -7796,17 +7215,17 @@
       <c r="AA74" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB74" s="5">
+      <c r="AB74">
         <v>140</v>
       </c>
-      <c r="AC74" s="10" t="s">
+      <c r="AC74" t="s">
         <v>265</v>
       </c>
       <c r="AE74" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:31">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>141</v>
       </c>
@@ -7844,7 +7263,7 @@
       <c r="Q75" s="1">
         <v>1</v>
       </c>
-      <c r="R75" s="5" t="s">
+      <c r="R75" t="s">
         <v>267</v>
       </c>
       <c r="U75" t="s">
@@ -7864,17 +7283,17 @@
       <c r="AA75" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB75" s="5">
+      <c r="AB75">
         <v>141</v>
       </c>
-      <c r="AC75" s="10" t="s">
+      <c r="AC75" t="s">
         <v>268</v>
       </c>
       <c r="AE75" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:31">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>142</v>
       </c>
@@ -7912,7 +7331,7 @@
       <c r="Q76" s="1">
         <v>1</v>
       </c>
-      <c r="R76" s="5" t="s">
+      <c r="R76" t="s">
         <v>270</v>
       </c>
       <c r="U76" t="s">
@@ -7932,17 +7351,17 @@
       <c r="AA76" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB76" s="5">
+      <c r="AB76">
         <v>142</v>
       </c>
-      <c r="AC76" s="10" t="s">
+      <c r="AC76" t="s">
         <v>271</v>
       </c>
       <c r="AE76" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:31">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>143</v>
       </c>
@@ -7980,7 +7399,7 @@
       <c r="Q77" s="1">
         <v>1</v>
       </c>
-      <c r="R77" s="5" t="s">
+      <c r="R77" t="s">
         <v>165</v>
       </c>
       <c r="U77" t="s">
@@ -8000,17 +7419,17 @@
       <c r="AA77" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB77" s="5">
+      <c r="AB77">
         <v>143</v>
       </c>
-      <c r="AC77" s="10" t="s">
+      <c r="AC77" t="s">
         <v>273</v>
       </c>
       <c r="AE77" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:31">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>144</v>
       </c>
@@ -8048,7 +7467,7 @@
       <c r="Q78" s="1">
         <v>1</v>
       </c>
-      <c r="R78" s="5" t="s">
+      <c r="R78" t="s">
         <v>159</v>
       </c>
       <c r="U78" t="s">
@@ -8068,17 +7487,17 @@
       <c r="AA78" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB78" s="5">
+      <c r="AB78">
         <v>144</v>
       </c>
-      <c r="AC78" s="10" t="s">
+      <c r="AC78" t="s">
         <v>275</v>
       </c>
       <c r="AE78" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:31">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>145</v>
       </c>
@@ -8116,7 +7535,7 @@
       <c r="Q79" s="1">
         <v>1</v>
       </c>
-      <c r="R79" s="5" t="s">
+      <c r="R79" t="s">
         <v>183</v>
       </c>
       <c r="U79" t="s">
@@ -8136,17 +7555,17 @@
       <c r="AA79" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB79" s="5">
+      <c r="AB79">
         <v>145</v>
       </c>
-      <c r="AC79" s="10" t="s">
+      <c r="AC79" t="s">
         <v>277</v>
       </c>
       <c r="AE79" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:31">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>146</v>
       </c>
@@ -8184,7 +7603,7 @@
       <c r="Q80" s="1">
         <v>1</v>
       </c>
-      <c r="R80" s="5" t="s">
+      <c r="R80" t="s">
         <v>279</v>
       </c>
       <c r="U80" t="s">
@@ -8204,17 +7623,17 @@
       <c r="AA80" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB80" s="5">
+      <c r="AB80">
         <v>146</v>
       </c>
-      <c r="AC80" s="10" t="s">
+      <c r="AC80" t="s">
         <v>280</v>
       </c>
       <c r="AE80" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:31">
+    <row r="81" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>147</v>
       </c>
@@ -8252,7 +7671,7 @@
       <c r="Q81" s="1">
         <v>1</v>
       </c>
-      <c r="R81" s="5" t="s">
+      <c r="R81" t="s">
         <v>186</v>
       </c>
       <c r="U81" t="s">
@@ -8272,17 +7691,17 @@
       <c r="AA81" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB81" s="5">
+      <c r="AB81">
         <v>147</v>
       </c>
-      <c r="AC81" s="10" t="s">
+      <c r="AC81" t="s">
         <v>282</v>
       </c>
       <c r="AE81" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:31">
+    <row r="82" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>148</v>
       </c>
@@ -8320,7 +7739,7 @@
       <c r="Q82" s="1">
         <v>1</v>
       </c>
-      <c r="R82" s="5" t="s">
+      <c r="R82" t="s">
         <v>177</v>
       </c>
       <c r="U82" t="s">
@@ -8340,17 +7759,17 @@
       <c r="AA82" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB82" s="5">
+      <c r="AB82">
         <v>148</v>
       </c>
-      <c r="AC82" s="10" t="s">
+      <c r="AC82" t="s">
         <v>284</v>
       </c>
       <c r="AE82" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:31">
+    <row r="83" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>149</v>
       </c>
@@ -8388,7 +7807,7 @@
       <c r="Q83" s="1">
         <v>1</v>
       </c>
-      <c r="R83" s="5" t="s">
+      <c r="R83" t="s">
         <v>243</v>
       </c>
       <c r="U83" t="s">
@@ -8408,17 +7827,17 @@
       <c r="AA83" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB83" s="5">
+      <c r="AB83">
         <v>149</v>
       </c>
-      <c r="AC83" s="10" t="s">
+      <c r="AC83" t="s">
         <v>286</v>
       </c>
       <c r="AE83" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:31">
+    <row r="84" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>150</v>
       </c>
@@ -8456,7 +7875,7 @@
       <c r="Q84" s="1">
         <v>1</v>
       </c>
-      <c r="R84" s="5" t="s">
+      <c r="R84" t="s">
         <v>180</v>
       </c>
       <c r="U84" t="s">
@@ -8476,17 +7895,17 @@
       <c r="AA84" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB84" s="5">
+      <c r="AB84">
         <v>150</v>
       </c>
-      <c r="AC84" s="10" t="s">
+      <c r="AC84" t="s">
         <v>288</v>
       </c>
       <c r="AE84" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:31">
+    <row r="85" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>151</v>
       </c>
@@ -8524,7 +7943,7 @@
       <c r="Q85" s="1">
         <v>1</v>
       </c>
-      <c r="R85" s="5" t="s">
+      <c r="R85" t="s">
         <v>171</v>
       </c>
       <c r="U85" t="s">
@@ -8544,17 +7963,17 @@
       <c r="AA85" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB85" s="5">
+      <c r="AB85">
         <v>151</v>
       </c>
-      <c r="AC85" s="10" t="s">
+      <c r="AC85" t="s">
         <v>290</v>
       </c>
       <c r="AE85" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:31">
+    <row r="86" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>152</v>
       </c>
@@ -8592,7 +8011,7 @@
       <c r="Q86" s="1">
         <v>1</v>
       </c>
-      <c r="R86" s="5" t="s">
+      <c r="R86" t="s">
         <v>174</v>
       </c>
       <c r="U86" t="s">
@@ -8612,17 +8031,17 @@
       <c r="AA86" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB86" s="5">
+      <c r="AB86">
         <v>152</v>
       </c>
-      <c r="AC86" s="10" t="s">
+      <c r="AC86" t="s">
         <v>292</v>
       </c>
       <c r="AE86" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:31">
+    <row r="87" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>153</v>
       </c>
@@ -8660,7 +8079,7 @@
       <c r="Q87" s="1">
         <v>1</v>
       </c>
-      <c r="R87" s="5" t="s">
+      <c r="R87" t="s">
         <v>294</v>
       </c>
       <c r="U87" t="s">
@@ -8680,17 +8099,17 @@
       <c r="AA87" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB87" s="5">
+      <c r="AB87">
         <v>153</v>
       </c>
-      <c r="AC87" s="10" t="s">
+      <c r="AC87" t="s">
         <v>295</v>
       </c>
       <c r="AE87" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:31">
+    <row r="88" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>154</v>
       </c>
@@ -8728,7 +8147,7 @@
       <c r="Q88" s="1">
         <v>1</v>
       </c>
-      <c r="R88" s="5" t="s">
+      <c r="R88" t="s">
         <v>165</v>
       </c>
       <c r="U88" t="s">
@@ -8748,17 +8167,17 @@
       <c r="AA88" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB88" s="5">
+      <c r="AB88">
         <v>154</v>
       </c>
-      <c r="AC88" s="10" t="s">
+      <c r="AC88" t="s">
         <v>297</v>
       </c>
       <c r="AE88" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:31">
+    <row r="89" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>155</v>
       </c>
@@ -8796,7 +8215,7 @@
       <c r="Q89" s="1">
         <v>1</v>
       </c>
-      <c r="R89" s="5" t="s">
+      <c r="R89" t="s">
         <v>243</v>
       </c>
       <c r="U89" t="s">
@@ -8816,17 +8235,17 @@
       <c r="AA89" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB89" s="5">
+      <c r="AB89">
         <v>155</v>
       </c>
-      <c r="AC89" s="10" t="s">
+      <c r="AC89" t="s">
         <v>299</v>
       </c>
       <c r="AE89" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:31">
+    <row r="90" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>156</v>
       </c>
@@ -8864,7 +8283,7 @@
       <c r="Q90" s="1">
         <v>1</v>
       </c>
-      <c r="R90" s="5" t="s">
+      <c r="R90" t="s">
         <v>195</v>
       </c>
       <c r="U90" t="s">
@@ -8884,17 +8303,17 @@
       <c r="AA90" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB90" s="5">
+      <c r="AB90">
         <v>156</v>
       </c>
-      <c r="AC90" s="10" t="s">
+      <c r="AC90" t="s">
         <v>301</v>
       </c>
       <c r="AE90" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:31">
+    <row r="91" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>157</v>
       </c>
@@ -8932,7 +8351,7 @@
       <c r="Q91" s="1">
         <v>1</v>
       </c>
-      <c r="R91" s="5" t="s">
+      <c r="R91" t="s">
         <v>183</v>
       </c>
       <c r="U91" t="s">
@@ -8952,17 +8371,17 @@
       <c r="AA91" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB91" s="5">
+      <c r="AB91">
         <v>157</v>
       </c>
-      <c r="AC91" s="10" t="s">
+      <c r="AC91" t="s">
         <v>303</v>
       </c>
       <c r="AE91" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:31">
+    <row r="92" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>158</v>
       </c>
@@ -9000,7 +8419,7 @@
       <c r="Q92" s="1">
         <v>1</v>
       </c>
-      <c r="R92" s="5" t="s">
+      <c r="R92" t="s">
         <v>252</v>
       </c>
       <c r="U92" t="s">
@@ -9020,17 +8439,17 @@
       <c r="AA92" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB92" s="5">
+      <c r="AB92">
         <v>158</v>
       </c>
-      <c r="AC92" s="10" t="s">
+      <c r="AC92" t="s">
         <v>305</v>
       </c>
       <c r="AE92" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:31">
+    <row r="93" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>159</v>
       </c>
@@ -9068,7 +8487,7 @@
       <c r="Q93" s="1">
         <v>1</v>
       </c>
-      <c r="R93" s="5" t="s">
+      <c r="R93" t="s">
         <v>307</v>
       </c>
       <c r="U93" t="s">
@@ -9088,17 +8507,17 @@
       <c r="AA93" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB93" s="5">
+      <c r="AB93">
         <v>159</v>
       </c>
-      <c r="AC93" s="10" t="s">
+      <c r="AC93" t="s">
         <v>308</v>
       </c>
       <c r="AE93" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:31">
+    <row r="94" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>160</v>
       </c>
@@ -9136,7 +8555,7 @@
       <c r="Q94" s="1">
         <v>1</v>
       </c>
-      <c r="R94" s="5" t="s">
+      <c r="R94" t="s">
         <v>159</v>
       </c>
       <c r="U94" t="s">
@@ -9156,17 +8575,17 @@
       <c r="AA94" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB94" s="5">
+      <c r="AB94">
         <v>160</v>
       </c>
-      <c r="AC94" s="10" t="s">
+      <c r="AC94" t="s">
         <v>310</v>
       </c>
       <c r="AE94" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:31">
+    <row r="95" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>161</v>
       </c>
@@ -9204,7 +8623,7 @@
       <c r="Q95" s="1">
         <v>1</v>
       </c>
-      <c r="R95" s="5" t="s">
+      <c r="R95" t="s">
         <v>177</v>
       </c>
       <c r="U95" t="s">
@@ -9224,17 +8643,17 @@
       <c r="AA95" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB95" s="5">
+      <c r="AB95">
         <v>161</v>
       </c>
-      <c r="AC95" s="10" t="s">
+      <c r="AC95" t="s">
         <v>312</v>
       </c>
       <c r="AE95" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:31">
+    <row r="96" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>162</v>
       </c>
@@ -9272,7 +8691,7 @@
       <c r="Q96" s="1">
         <v>1</v>
       </c>
-      <c r="R96" s="5" t="s">
+      <c r="R96" t="s">
         <v>198</v>
       </c>
       <c r="U96" t="s">
@@ -9292,17 +8711,17 @@
       <c r="AA96" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB96" s="5">
+      <c r="AB96">
         <v>162</v>
       </c>
-      <c r="AC96" s="10" t="s">
+      <c r="AC96" t="s">
         <v>314</v>
       </c>
       <c r="AE96" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:31">
+    <row r="97" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>163</v>
       </c>
@@ -9340,7 +8759,7 @@
       <c r="Q97" s="1">
         <v>1</v>
       </c>
-      <c r="R97" s="5" t="s">
+      <c r="R97" t="s">
         <v>159</v>
       </c>
       <c r="U97" t="s">
@@ -9360,17 +8779,17 @@
       <c r="AA97" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB97" s="5">
+      <c r="AB97">
         <v>163</v>
       </c>
-      <c r="AC97" s="10" t="s">
+      <c r="AC97" t="s">
         <v>316</v>
       </c>
       <c r="AE97" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:31">
+    <row r="98" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>164</v>
       </c>
@@ -9408,7 +8827,7 @@
       <c r="Q98" s="1">
         <v>1</v>
       </c>
-      <c r="R98" s="5" t="s">
+      <c r="R98" t="s">
         <v>318</v>
       </c>
       <c r="U98" t="s">
@@ -9428,17 +8847,17 @@
       <c r="AA98" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB98" s="5">
+      <c r="AB98">
         <v>164</v>
       </c>
-      <c r="AC98" s="10" t="s">
+      <c r="AC98" t="s">
         <v>319</v>
       </c>
       <c r="AE98" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:31">
+    <row r="99" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>165</v>
       </c>
@@ -9476,7 +8895,7 @@
       <c r="Q99" s="1">
         <v>1</v>
       </c>
-      <c r="R99" s="5" t="s">
+      <c r="R99" t="s">
         <v>321</v>
       </c>
       <c r="U99" t="s">
@@ -9496,17 +8915,17 @@
       <c r="AA99" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB99" s="5">
+      <c r="AB99">
         <v>165</v>
       </c>
-      <c r="AC99" s="10" t="s">
+      <c r="AC99" t="s">
         <v>322</v>
       </c>
       <c r="AE99" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:31">
+    <row r="100" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>166</v>
       </c>
@@ -9544,7 +8963,7 @@
       <c r="Q100" s="1">
         <v>1</v>
       </c>
-      <c r="R100" s="5" t="s">
+      <c r="R100" t="s">
         <v>324</v>
       </c>
       <c r="U100" t="s">
@@ -9564,17 +8983,17 @@
       <c r="AA100" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB100" s="5">
+      <c r="AB100">
         <v>166</v>
       </c>
-      <c r="AC100" s="10" t="s">
+      <c r="AC100" t="s">
         <v>325</v>
       </c>
       <c r="AE100" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:31">
+    <row r="101" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>167</v>
       </c>
@@ -9612,7 +9031,7 @@
       <c r="Q101" s="1">
         <v>1</v>
       </c>
-      <c r="R101" s="5" t="s">
+      <c r="R101" t="s">
         <v>221</v>
       </c>
       <c r="U101" t="s">
@@ -9632,17 +9051,17 @@
       <c r="AA101" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB101" s="5">
+      <c r="AB101">
         <v>167</v>
       </c>
-      <c r="AC101" s="10" t="s">
+      <c r="AC101" t="s">
         <v>327</v>
       </c>
       <c r="AE101" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:31">
+    <row r="102" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>168</v>
       </c>
@@ -9680,7 +9099,7 @@
       <c r="Q102" s="1">
         <v>1</v>
       </c>
-      <c r="R102" s="5" t="s">
+      <c r="R102" t="s">
         <v>174</v>
       </c>
       <c r="U102" t="s">
@@ -9700,17 +9119,17 @@
       <c r="AA102" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB102" s="5">
+      <c r="AB102">
         <v>168</v>
       </c>
-      <c r="AC102" s="10" t="s">
+      <c r="AC102" t="s">
         <v>329</v>
       </c>
       <c r="AE102" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:31">
+    <row r="103" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>169</v>
       </c>
@@ -9748,7 +9167,7 @@
       <c r="Q103" s="1">
         <v>1</v>
       </c>
-      <c r="R103" s="5" t="s">
+      <c r="R103" t="s">
         <v>218</v>
       </c>
       <c r="U103" t="s">
@@ -9768,17 +9187,17 @@
       <c r="AA103" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB103" s="5">
+      <c r="AB103">
         <v>169</v>
       </c>
-      <c r="AC103" s="10" t="s">
+      <c r="AC103" t="s">
         <v>331</v>
       </c>
       <c r="AE103" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:31">
+    <row r="104" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>170</v>
       </c>
@@ -9816,7 +9235,7 @@
       <c r="Q104" s="1">
         <v>1</v>
       </c>
-      <c r="R104" s="5" t="s">
+      <c r="R104" t="s">
         <v>333</v>
       </c>
       <c r="U104" t="s">
@@ -9836,17 +9255,17 @@
       <c r="AA104" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB104" s="5">
+      <c r="AB104">
         <v>170</v>
       </c>
-      <c r="AC104" s="10" t="s">
+      <c r="AC104" t="s">
         <v>334</v>
       </c>
       <c r="AE104" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:31">
+    <row r="105" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>171</v>
       </c>
@@ -9884,7 +9303,7 @@
       <c r="Q105" s="1">
         <v>1</v>
       </c>
-      <c r="R105" s="5" t="s">
+      <c r="R105" t="s">
         <v>336</v>
       </c>
       <c r="U105" t="s">
@@ -9904,17 +9323,17 @@
       <c r="AA105" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB105" s="5">
+      <c r="AB105">
         <v>171</v>
       </c>
-      <c r="AC105" s="10" t="s">
+      <c r="AC105" t="s">
         <v>337</v>
       </c>
       <c r="AE105" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:31">
+    <row r="106" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>172</v>
       </c>
@@ -9952,7 +9371,7 @@
       <c r="Q106" s="1">
         <v>1</v>
       </c>
-      <c r="R106" s="5" t="s">
+      <c r="R106" t="s">
         <v>339</v>
       </c>
       <c r="U106" t="s">
@@ -9972,17 +9391,17 @@
       <c r="AA106" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB106" s="5">
+      <c r="AB106">
         <v>172</v>
       </c>
-      <c r="AC106" s="10" t="s">
+      <c r="AC106" t="s">
         <v>340</v>
       </c>
       <c r="AE106" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:31">
+    <row r="107" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>173</v>
       </c>
@@ -10020,7 +9439,7 @@
       <c r="Q107" s="1">
         <v>1</v>
       </c>
-      <c r="R107" s="5" t="s">
+      <c r="R107" t="s">
         <v>183</v>
       </c>
       <c r="U107" t="s">
@@ -10040,17 +9459,17 @@
       <c r="AA107" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB107" s="5">
+      <c r="AB107">
         <v>173</v>
       </c>
-      <c r="AC107" s="10" t="s">
+      <c r="AC107" t="s">
         <v>342</v>
       </c>
       <c r="AE107" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:31">
+    <row r="108" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>174</v>
       </c>
@@ -10088,7 +9507,7 @@
       <c r="Q108" s="1">
         <v>1</v>
       </c>
-      <c r="R108" s="5" t="s">
+      <c r="R108" t="s">
         <v>165</v>
       </c>
       <c r="U108" t="s">
@@ -10108,17 +9527,17 @@
       <c r="AA108" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB108" s="5">
+      <c r="AB108">
         <v>174</v>
       </c>
-      <c r="AC108" s="10" t="s">
+      <c r="AC108" t="s">
         <v>344</v>
       </c>
       <c r="AE108" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:31">
+    <row r="109" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>175</v>
       </c>
@@ -10156,7 +9575,7 @@
       <c r="Q109" s="1">
         <v>1</v>
       </c>
-      <c r="R109" s="5" t="s">
+      <c r="R109" t="s">
         <v>201</v>
       </c>
       <c r="U109" t="s">
@@ -10176,34 +9595,32 @@
       <c r="AA109" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB109" s="5">
+      <c r="AB109">
         <v>175</v>
       </c>
-      <c r="AC109" s="10" t="s">
+      <c r="AC109" t="s">
         <v>346</v>
       </c>
       <c r="AE109" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:29">
+    <row r="110" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
-      <c r="C110" s="10"/>
-      <c r="D110" s="10"/>
+      <c r="C110"/>
+      <c r="D110"/>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
-      <c r="R110" s="6"/>
+      <c r="R110" s="5"/>
       <c r="X110" s="3"/>
       <c r="Y110" s="3"/>
       <c r="Z110" s="2"/>
-      <c r="AA110" s="12"/>
-      <c r="AB110" s="10"/>
-      <c r="AC110" s="10"/>
-    </row>
-    <row r="111" spans="1:31">
+      <c r="AB110"/>
+    </row>
+    <row r="111" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>91001</v>
       </c>
@@ -10240,10 +9657,10 @@
       <c r="Q111" s="1">
         <v>1</v>
       </c>
-      <c r="T111" s="11">
+      <c r="T111" s="9">
         <v>148595</v>
       </c>
-      <c r="U111" s="11" t="s">
+      <c r="U111" s="9" t="s">
         <v>348</v>
       </c>
       <c r="V111" t="s">
@@ -10261,7 +9678,7 @@
       <c r="Z111" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="AA111" s="7" t="s">
+      <c r="AA111" s="6" t="s">
         <v>351</v>
       </c>
       <c r="AB111" s="1">
@@ -10275,7 +9692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:31">
+    <row r="112" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>91003</v>
       </c>
@@ -10312,10 +9729,10 @@
       <c r="Q112" s="1">
         <v>1</v>
       </c>
-      <c r="T112" s="11">
+      <c r="T112" s="9">
         <v>44994</v>
       </c>
-      <c r="U112" s="11" t="s">
+      <c r="U112" s="9" t="s">
         <v>353</v>
       </c>
       <c r="V112" t="s">
@@ -10333,7 +9750,7 @@
       <c r="Z112" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="AA112" s="7" t="s">
+      <c r="AA112" s="6" t="s">
         <v>351</v>
       </c>
       <c r="AB112" s="1">
@@ -10346,7 +9763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:31">
+    <row r="113" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>91005</v>
       </c>
@@ -10380,10 +9797,10 @@
       <c r="Q113" s="1">
         <v>1</v>
       </c>
-      <c r="T113" s="11">
+      <c r="T113" s="9">
         <v>43372</v>
       </c>
-      <c r="U113" s="11" t="s">
+      <c r="U113" s="9" t="s">
         <v>353</v>
       </c>
       <c r="V113" t="s">
@@ -10401,7 +9818,7 @@
       <c r="Z113" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="AA113" s="7" t="s">
+      <c r="AA113" s="6" t="s">
         <v>356</v>
       </c>
       <c r="AC113" t="s">
@@ -10411,7 +9828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" ht="16.2" customHeight="1" spans="1:31">
+    <row r="114" spans="1:32" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>91007</v>
       </c>
@@ -10448,10 +9865,10 @@
       <c r="Q114" s="1">
         <v>1</v>
       </c>
-      <c r="T114" s="11" t="s">
+      <c r="T114" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="U114" s="11" t="s">
+      <c r="U114" s="9" t="s">
         <v>359</v>
       </c>
       <c r="V114" t="s">
@@ -10469,7 +9886,7 @@
       <c r="Z114" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AA114" s="7" t="s">
+      <c r="AA114" s="6" t="s">
         <v>362</v>
       </c>
       <c r="AB114" s="1">
@@ -10482,7 +9899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:27">
+    <row r="115" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A115" s="3"/>
       <c r="B115" s="2"/>
       <c r="F115" s="2"/>
@@ -10495,7 +9912,7 @@
       <c r="Z115" s="2"/>
       <c r="AA115" s="2"/>
     </row>
-    <row r="116" spans="1:27">
+    <row r="116" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A116" s="3"/>
       <c r="B116" s="2"/>
       <c r="F116" s="2"/>
@@ -10508,7 +9925,7 @@
       <c r="Z116" s="2"/>
       <c r="AA116" s="2"/>
     </row>
-    <row r="117" spans="1:32">
+    <row r="117" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>6001</v>
       </c>
@@ -10548,38 +9965,38 @@
       <c r="R117" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="T117" s="10" t="s">
+      <c r="T117" t="s">
         <v>366</v>
       </c>
-      <c r="U117" s="10" t="s">
+      <c r="U117" t="s">
         <v>367</v>
       </c>
-      <c r="V117" s="10" t="s">
+      <c r="V117" t="s">
         <v>368</v>
       </c>
-      <c r="W117" s="10" t="s">
+      <c r="W117" t="s">
         <v>369</v>
       </c>
-      <c r="X117" s="10" t="s">
+      <c r="X117" t="s">
         <v>370</v>
       </c>
-      <c r="Y117" s="10" t="s">
+      <c r="Y117" t="s">
         <v>371</v>
       </c>
-      <c r="Z117" s="10" t="s">
+      <c r="Z117" t="s">
         <v>372</v>
       </c>
-      <c r="AA117" s="7" t="s">
+      <c r="AA117" s="6" t="s">
         <v>356</v>
       </c>
       <c r="AC117" t="s">
         <v>373</v>
       </c>
-      <c r="AD117" s="13"/>
-      <c r="AE117" s="13"/>
-      <c r="AF117" s="13"/>
-    </row>
-    <row r="118" spans="1:32">
+      <c r="AD117" s="10"/>
+      <c r="AE117" s="10"/>
+      <c r="AF117" s="10"/>
+    </row>
+    <row r="118" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>6002</v>
       </c>
@@ -10619,38 +10036,38 @@
       <c r="R118" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="T118" s="10" t="s">
+      <c r="T118" t="s">
         <v>376</v>
       </c>
-      <c r="U118" s="10" t="s">
+      <c r="U118" t="s">
         <v>377</v>
       </c>
-      <c r="V118" s="10" t="s">
+      <c r="V118" t="s">
         <v>378</v>
       </c>
-      <c r="W118" s="10" t="s">
+      <c r="W118" t="s">
         <v>350</v>
       </c>
-      <c r="X118" s="10" t="s">
+      <c r="X118" t="s">
         <v>379</v>
       </c>
-      <c r="Y118" s="10" t="s">
+      <c r="Y118" t="s">
         <v>380</v>
       </c>
-      <c r="Z118" s="10" t="s">
+      <c r="Z118" t="s">
         <v>381</v>
       </c>
-      <c r="AA118" s="7" t="s">
+      <c r="AA118" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="AC118" s="10" t="s">
+      <c r="AC118" t="s">
         <v>382</v>
       </c>
-      <c r="AD118" s="13"/>
-      <c r="AE118" s="13"/>
-      <c r="AF118" s="13"/>
-    </row>
-    <row r="119" spans="1:29">
+      <c r="AD118" s="10"/>
+      <c r="AE118" s="10"/>
+      <c r="AF118" s="10"/>
+    </row>
+    <row r="119" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>6003</v>
       </c>
@@ -10702,23 +10119,23 @@
       <c r="W119" t="s">
         <v>388</v>
       </c>
-      <c r="X119" s="10" t="s">
+      <c r="X119" t="s">
         <v>389</v>
       </c>
       <c r="Y119" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="Z119" s="10" t="s">
+      <c r="Z119" t="s">
         <v>391</v>
       </c>
-      <c r="AA119" s="7" t="s">
+      <c r="AA119" s="6" t="s">
         <v>356</v>
       </c>
       <c r="AC119" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="120" spans="1:29">
+    <row r="120" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>6004</v>
       </c>
@@ -10770,23 +10187,23 @@
       <c r="W120" t="s">
         <v>398</v>
       </c>
-      <c r="X120" s="10" t="s">
+      <c r="X120" t="s">
         <v>399</v>
       </c>
-      <c r="Y120" s="10" t="s">
+      <c r="Y120" t="s">
         <v>400</v>
       </c>
-      <c r="Z120" s="10" t="s">
+      <c r="Z120" t="s">
         <v>398</v>
       </c>
-      <c r="AA120" s="7" t="s">
+      <c r="AA120" s="6" t="s">
         <v>356</v>
       </c>
       <c r="AC120" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="121" spans="1:29">
+    <row r="121" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>6005</v>
       </c>
@@ -10838,23 +10255,23 @@
       <c r="W121" t="s">
         <v>407</v>
       </c>
-      <c r="X121" s="10" t="s">
+      <c r="X121" t="s">
         <v>408</v>
       </c>
       <c r="Y121" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="Z121" s="10" t="s">
+      <c r="Z121" t="s">
         <v>410</v>
       </c>
-      <c r="AA121" s="7" t="s">
+      <c r="AA121" s="6" t="s">
         <v>356</v>
       </c>
       <c r="AC121" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="122" spans="1:30">
+    <row r="122" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>6006</v>
       </c>
@@ -10894,7 +10311,7 @@
       <c r="R122" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="T122" s="11" t="s">
+      <c r="T122" s="9" t="s">
         <v>414</v>
       </c>
       <c r="U122" t="s">
@@ -10906,16 +10323,16 @@
       <c r="W122" t="s">
         <v>369</v>
       </c>
-      <c r="X122" s="10" t="s">
+      <c r="X122" t="s">
         <v>417</v>
       </c>
-      <c r="Y122" s="10" t="s">
+      <c r="Y122" t="s">
         <v>418</v>
       </c>
-      <c r="Z122" s="10" t="s">
+      <c r="Z122" t="s">
         <v>372</v>
       </c>
-      <c r="AA122" s="7" t="s">
+      <c r="AA122" s="6" t="s">
         <v>356</v>
       </c>
       <c r="AC122" t="s">
@@ -10923,7 +10340,7 @@
       </c>
       <c r="AD122" s="2"/>
     </row>
-    <row r="123" spans="1:29">
+    <row r="123" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>6007</v>
       </c>
@@ -10963,7 +10380,7 @@
       <c r="R123" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="T123" s="11" t="s">
+      <c r="T123" s="9" t="s">
         <v>422</v>
       </c>
       <c r="U123" t="s">
@@ -10975,23 +10392,23 @@
       <c r="W123" t="s">
         <v>369</v>
       </c>
-      <c r="X123" s="10" t="s">
+      <c r="X123" t="s">
         <v>417</v>
       </c>
-      <c r="Y123" s="10" t="s">
+      <c r="Y123" t="s">
         <v>418</v>
       </c>
-      <c r="Z123" s="10" t="s">
+      <c r="Z123" t="s">
         <v>372</v>
       </c>
-      <c r="AA123" s="7" t="s">
+      <c r="AA123" s="6" t="s">
         <v>356</v>
       </c>
       <c r="AC123" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="124" spans="1:29">
+    <row r="124" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>6008</v>
       </c>
@@ -11031,7 +10448,7 @@
       <c r="R124" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="T124" s="11" t="s">
+      <c r="T124" s="9" t="s">
         <v>426</v>
       </c>
       <c r="U124" t="s">
@@ -11043,23 +10460,23 @@
       <c r="W124" t="s">
         <v>369</v>
       </c>
-      <c r="X124" s="10" t="s">
+      <c r="X124" t="s">
         <v>417</v>
       </c>
-      <c r="Y124" s="10" t="s">
+      <c r="Y124" t="s">
         <v>418</v>
       </c>
-      <c r="Z124" s="10" t="s">
+      <c r="Z124" t="s">
         <v>372</v>
       </c>
-      <c r="AA124" s="7" t="s">
+      <c r="AA124" s="6" t="s">
         <v>356</v>
       </c>
       <c r="AC124" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="125" spans="1:29">
+    <row r="125" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>6009</v>
       </c>
@@ -11099,7 +10516,7 @@
       <c r="R125" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="T125" s="11" t="s">
+      <c r="T125" s="9" t="s">
         <v>430</v>
       </c>
       <c r="U125" t="s">
@@ -11111,23 +10528,23 @@
       <c r="W125" t="s">
         <v>369</v>
       </c>
-      <c r="X125" s="10" t="s">
+      <c r="X125" t="s">
         <v>417</v>
       </c>
-      <c r="Y125" s="10" t="s">
+      <c r="Y125" t="s">
         <v>418</v>
       </c>
-      <c r="Z125" s="10" t="s">
+      <c r="Z125" t="s">
         <v>372</v>
       </c>
-      <c r="AA125" s="7" t="s">
+      <c r="AA125" s="6" t="s">
         <v>356</v>
       </c>
       <c r="AC125" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="126" spans="1:29">
+    <row r="126" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>6010</v>
       </c>
@@ -11167,7 +10584,7 @@
       <c r="R126" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="T126" s="11" t="s">
+      <c r="T126" s="9" t="s">
         <v>434</v>
       </c>
       <c r="U126" t="s">
@@ -11179,23 +10596,23 @@
       <c r="W126" t="s">
         <v>436</v>
       </c>
-      <c r="X126" s="10" t="s">
+      <c r="X126" t="s">
         <v>437</v>
       </c>
-      <c r="Y126" s="10" t="s">
+      <c r="Y126" t="s">
         <v>438</v>
       </c>
-      <c r="Z126" s="10" t="s">
+      <c r="Z126" t="s">
         <v>436</v>
       </c>
-      <c r="AA126" s="7" t="s">
+      <c r="AA126" s="6" t="s">
         <v>356</v>
       </c>
       <c r="AC126" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="127" ht="16.2" customHeight="1" spans="1:29">
+    <row r="127" spans="1:32" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>6011</v>
       </c>
@@ -11235,7 +10652,7 @@
       <c r="R127" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="T127" s="11" t="s">
+      <c r="T127" s="9" t="s">
         <v>442</v>
       </c>
       <c r="U127" t="s">
@@ -11247,23 +10664,23 @@
       <c r="W127" t="s">
         <v>436</v>
       </c>
-      <c r="X127" s="10" t="s">
+      <c r="X127" t="s">
         <v>437</v>
       </c>
-      <c r="Y127" s="10" t="s">
+      <c r="Y127" t="s">
         <v>438</v>
       </c>
-      <c r="Z127" s="10" t="s">
+      <c r="Z127" t="s">
         <v>436</v>
       </c>
-      <c r="AA127" s="7" t="s">
+      <c r="AA127" s="6" t="s">
         <v>356</v>
       </c>
       <c r="AC127" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="128" spans="1:29">
+    <row r="128" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>6012</v>
       </c>
@@ -11303,7 +10720,7 @@
       <c r="R128" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="T128" s="11" t="s">
+      <c r="T128" s="9" t="s">
         <v>446</v>
       </c>
       <c r="U128" t="s">
@@ -11315,23 +10732,23 @@
       <c r="W128" t="s">
         <v>436</v>
       </c>
-      <c r="X128" s="10" t="s">
+      <c r="X128" t="s">
         <v>437</v>
       </c>
-      <c r="Y128" s="10" t="s">
+      <c r="Y128" t="s">
         <v>438</v>
       </c>
-      <c r="Z128" s="10" t="s">
+      <c r="Z128" t="s">
         <v>436</v>
       </c>
-      <c r="AA128" s="7" t="s">
+      <c r="AA128" s="6" t="s">
         <v>356</v>
       </c>
       <c r="AC128" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="129" spans="1:29">
+    <row r="129" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>6013</v>
       </c>
@@ -11383,23 +10800,23 @@
       <c r="W129" t="s">
         <v>436</v>
       </c>
-      <c r="X129" s="10" t="s">
+      <c r="X129" t="s">
         <v>437</v>
       </c>
-      <c r="Y129" s="10" t="s">
+      <c r="Y129" t="s">
         <v>438</v>
       </c>
-      <c r="Z129" s="10" t="s">
+      <c r="Z129" t="s">
         <v>436</v>
       </c>
-      <c r="AA129" s="7" t="s">
+      <c r="AA129" s="6" t="s">
         <v>356</v>
       </c>
       <c r="AC129" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="130" spans="1:27">
+    <row r="130" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>9999</v>
       </c>
@@ -11427,32 +10844,252 @@
       <c r="T130">
         <v>194971</v>
       </c>
-      <c r="U130" s="10" t="s">
+      <c r="U130" t="s">
         <v>454</v>
       </c>
-      <c r="V130" s="10" t="s">
+      <c r="V130" t="s">
         <v>455</v>
       </c>
-      <c r="W130" s="10" t="s">
+      <c r="W130" t="s">
         <v>456</v>
       </c>
-      <c r="X130" s="10" t="s">
+      <c r="X130" t="s">
         <v>457</v>
       </c>
-      <c r="Y130" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z130" s="10" t="s">
+      <c r="Y130" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z130" t="s">
         <v>398</v>
       </c>
       <c r="AA130" s="1" t="s">
         <v>458</v>
       </c>
     </row>
+    <row r="131" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A131" s="1">
+        <v>100001</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C131" s="1">
+        <v>290839</v>
+      </c>
+      <c r="E131" s="1">
+        <v>1</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="J131" s="3">
+        <v>1</v>
+      </c>
+      <c r="K131" s="1">
+        <v>0</v>
+      </c>
+      <c r="L131" s="1">
+        <v>0</v>
+      </c>
+      <c r="N131" s="1">
+        <v>0</v>
+      </c>
+      <c r="O131" s="1">
+        <v>9999999</v>
+      </c>
+      <c r="Q131" s="1">
+        <v>0</v>
+      </c>
+      <c r="R131" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="U131" t="s">
+        <v>73</v>
+      </c>
+      <c r="V131" t="s">
+        <v>73</v>
+      </c>
+      <c r="W131" t="s">
+        <v>73</v>
+      </c>
+      <c r="X131" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y131" s="3"/>
+      <c r="Z131" s="2"/>
+      <c r="AA131" s="6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="132" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A132" s="1">
+        <v>100002</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C132" s="1">
+        <v>290823</v>
+      </c>
+      <c r="E132" s="1">
+        <v>1</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="J132" s="3">
+        <v>1</v>
+      </c>
+      <c r="K132" s="1">
+        <v>0</v>
+      </c>
+      <c r="L132" s="1">
+        <v>0</v>
+      </c>
+      <c r="N132" s="1">
+        <v>0</v>
+      </c>
+      <c r="O132" s="1">
+        <v>9999999</v>
+      </c>
+      <c r="Q132" s="1">
+        <v>0</v>
+      </c>
+      <c r="R132" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="U132" t="s">
+        <v>73</v>
+      </c>
+      <c r="V132" t="s">
+        <v>73</v>
+      </c>
+      <c r="W132" t="s">
+        <v>73</v>
+      </c>
+      <c r="X132" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y132" s="3"/>
+      <c r="Z132" s="2"/>
+      <c r="AA132" s="6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="133" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A133" s="1">
+        <v>100003</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C133" s="1">
+        <v>290829</v>
+      </c>
+      <c r="E133" s="1">
+        <v>1</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="J133" s="3">
+        <v>1</v>
+      </c>
+      <c r="K133" s="1">
+        <v>0</v>
+      </c>
+      <c r="L133" s="1">
+        <v>0</v>
+      </c>
+      <c r="N133" s="1">
+        <v>0</v>
+      </c>
+      <c r="O133" s="1">
+        <v>9999999</v>
+      </c>
+      <c r="Q133" s="1">
+        <v>0</v>
+      </c>
+      <c r="R133" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="U133" t="s">
+        <v>73</v>
+      </c>
+      <c r="V133" t="s">
+        <v>73</v>
+      </c>
+      <c r="W133" t="s">
+        <v>73</v>
+      </c>
+      <c r="X133" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y133" s="3"/>
+      <c r="Z133" s="2"/>
+      <c r="AA133" s="6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="134" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A134" s="1">
+        <v>100004</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C134" s="1">
+        <v>290827</v>
+      </c>
+      <c r="E134" s="1">
+        <v>1</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="J134" s="3">
+        <v>1</v>
+      </c>
+      <c r="K134" s="1">
+        <v>0</v>
+      </c>
+      <c r="L134" s="1">
+        <v>0</v>
+      </c>
+      <c r="N134" s="1">
+        <v>0</v>
+      </c>
+      <c r="O134" s="1">
+        <v>9999999</v>
+      </c>
+      <c r="Q134" s="1">
+        <v>0</v>
+      </c>
+      <c r="R134" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="U134" t="s">
+        <v>73</v>
+      </c>
+      <c r="V134" t="s">
+        <v>73</v>
+      </c>
+      <c r="W134" t="s">
+        <v>73</v>
+      </c>
+      <c r="X134" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y134" s="3"/>
+      <c r="Z134" s="2"/>
+      <c r="AA134" s="6" t="s">
+        <v>356</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
   <picture r:id="rId1"/>
 </worksheet>
 </file>
--- a/hauntedparadise/Excels/Item_道具表.xlsx
+++ b/hauntedparadise/Excels/Item_道具表.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\hauntedparadise\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A327142-89F9-4034-816A-1EF87FA034A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFFA698-A059-4EC7-AE7C-B9C5AFF2810A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="394">
   <si>
     <t>int</t>
   </si>
@@ -1294,12 +1294,24 @@
   <si>
     <t>UI_item_100004</t>
   </si>
+  <si>
+    <t>87953CE84921FD54F52C9B81DE8C6A8D</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>木墙</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildingDesc_0001</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -1349,6 +1361,12 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1385,7 +1403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1415,6 +1433,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1971,11 +1990,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH105"/>
+  <dimension ref="A1:AH123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9:E10"/>
+      <pane ySplit="3" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1994,7 +2013,8 @@
     <col min="17" max="17" width="16.5" style="1" customWidth="1"/>
     <col min="18" max="18" width="12" style="1" customWidth="1"/>
     <col min="19" max="19" width="7.75" style="1" customWidth="1"/>
-    <col min="20" max="22" width="10.375" customWidth="1"/>
+    <col min="20" max="20" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="10.375" customWidth="1"/>
     <col min="23" max="23" width="13.875" customWidth="1"/>
     <col min="24" max="26" width="16.375" style="1" customWidth="1"/>
     <col min="27" max="27" width="21.75" style="1" customWidth="1"/>
@@ -8345,7 +8365,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>6010</v>
       </c>
@@ -8413,7 +8433,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="98" spans="1:29" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:31" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>6011</v>
       </c>
@@ -8481,7 +8501,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>6012</v>
       </c>
@@ -8549,7 +8569,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>6013</v>
       </c>
@@ -8617,7 +8637,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>9999</v>
       </c>
@@ -8667,97 +8687,47 @@
         <v>382</v>
       </c>
     </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A102" s="1">
-        <v>100001</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D102" s="1">
-        <v>290839</v>
-      </c>
-      <c r="F102" s="1">
-        <v>1</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="K102" s="3">
-        <v>1</v>
-      </c>
-      <c r="L102" s="1">
-        <v>0</v>
-      </c>
-      <c r="M102" s="1">
-        <v>0</v>
-      </c>
-      <c r="O102" s="1">
-        <v>0</v>
-      </c>
-      <c r="P102" s="1">
-        <v>9999999</v>
-      </c>
-      <c r="R102" s="1">
-        <v>0</v>
-      </c>
-      <c r="U102" t="s">
-        <v>73</v>
-      </c>
-      <c r="V102" t="s">
-        <v>73</v>
-      </c>
-      <c r="W102" t="s">
-        <v>73</v>
-      </c>
-      <c r="X102" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y102" s="3"/>
-      <c r="Z102" s="2"/>
-      <c r="AA102" s="6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="X102"/>
+      <c r="Y102"/>
+      <c r="Z102"/>
+    </row>
+    <row r="103" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
-        <v>100002</v>
+        <v>10001</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D103" s="1">
-        <v>290823</v>
+        <v>393</v>
+      </c>
+      <c r="D103" s="4">
+        <v>94289</v>
       </c>
       <c r="F103" s="1">
-        <v>1</v>
+        <v>666</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="K103" s="3">
+        <v>393</v>
+      </c>
+      <c r="K103" s="1">
         <v>1</v>
       </c>
       <c r="L103" s="1">
         <v>0</v>
       </c>
-      <c r="M103" s="1">
-        <v>0</v>
+      <c r="M103" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="O103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P103" s="1">
-        <v>9999999</v>
+        <v>10</v>
       </c>
       <c r="R103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U103" t="s">
         <v>73</v>
@@ -8773,117 +8743,237 @@
       </c>
       <c r="Y103" s="3"/>
       <c r="Z103" s="2"/>
-      <c r="AA103" s="6" t="s">
+      <c r="AA103" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB103">
+        <f>A103</f>
+        <v>10001</v>
+      </c>
+      <c r="AC103" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="AE103" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A120" s="1">
+        <v>100001</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D120" s="1">
+        <v>294359</v>
+      </c>
+      <c r="F120" s="1">
+        <v>1</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="K120" s="3">
+        <v>1</v>
+      </c>
+      <c r="L120" s="1">
+        <v>0</v>
+      </c>
+      <c r="M120" s="1">
+        <v>0</v>
+      </c>
+      <c r="O120" s="1">
+        <v>0</v>
+      </c>
+      <c r="P120" s="1">
+        <v>9999999</v>
+      </c>
+      <c r="R120" s="1">
+        <v>0</v>
+      </c>
+      <c r="U120" t="s">
+        <v>73</v>
+      </c>
+      <c r="V120" t="s">
+        <v>73</v>
+      </c>
+      <c r="W120" t="s">
+        <v>73</v>
+      </c>
+      <c r="X120" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y120" s="3"/>
+      <c r="Z120" s="2"/>
+      <c r="AA120" s="6" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A104" s="1">
+    <row r="121" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A121" s="1">
+        <v>100002</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D121" s="1">
+        <v>142718</v>
+      </c>
+      <c r="F121" s="1">
+        <v>1</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="K121" s="3">
+        <v>1</v>
+      </c>
+      <c r="L121" s="1">
+        <v>0</v>
+      </c>
+      <c r="M121" s="1">
+        <v>0</v>
+      </c>
+      <c r="O121" s="1">
+        <v>0</v>
+      </c>
+      <c r="P121" s="1">
+        <v>9999999</v>
+      </c>
+      <c r="R121" s="1">
+        <v>0</v>
+      </c>
+      <c r="U121" t="s">
+        <v>73</v>
+      </c>
+      <c r="V121" t="s">
+        <v>73</v>
+      </c>
+      <c r="W121" t="s">
+        <v>73</v>
+      </c>
+      <c r="X121" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y121" s="3"/>
+      <c r="Z121" s="2"/>
+      <c r="AA121" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="122" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A122" s="1">
         <v>100003</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B122" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C122" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="D104" s="1">
-        <v>290829</v>
-      </c>
-      <c r="F104" s="1">
-        <v>1</v>
-      </c>
-      <c r="G104" s="2" t="s">
+      <c r="D122" s="1">
+        <v>142695</v>
+      </c>
+      <c r="F122" s="1">
+        <v>1</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K104" s="3">
-        <v>1</v>
-      </c>
-      <c r="L104" s="1">
-        <v>0</v>
-      </c>
-      <c r="M104" s="1">
-        <v>0</v>
-      </c>
-      <c r="O104" s="1">
-        <v>0</v>
-      </c>
-      <c r="P104" s="1">
+      <c r="K122" s="3">
+        <v>1</v>
+      </c>
+      <c r="L122" s="1">
+        <v>0</v>
+      </c>
+      <c r="M122" s="1">
+        <v>0</v>
+      </c>
+      <c r="O122" s="1">
+        <v>0</v>
+      </c>
+      <c r="P122" s="1">
         <v>9999999</v>
       </c>
-      <c r="R104" s="1">
-        <v>0</v>
-      </c>
-      <c r="U104" t="s">
-        <v>73</v>
-      </c>
-      <c r="V104" t="s">
-        <v>73</v>
-      </c>
-      <c r="W104" t="s">
-        <v>73</v>
-      </c>
-      <c r="X104" s="3" t="s">
+      <c r="R122" s="1">
+        <v>0</v>
+      </c>
+      <c r="U122" t="s">
+        <v>73</v>
+      </c>
+      <c r="V122" t="s">
+        <v>73</v>
+      </c>
+      <c r="W122" t="s">
+        <v>73</v>
+      </c>
+      <c r="X122" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="Y104" s="3"/>
-      <c r="Z104" s="2"/>
-      <c r="AA104" s="6" t="s">
+      <c r="Y122" s="3"/>
+      <c r="Z122" s="2"/>
+      <c r="AA122" s="6" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A105" s="1">
+    <row r="123" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A123" s="1">
         <v>100004</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B123" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C123" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="D105" s="1">
-        <v>290827</v>
-      </c>
-      <c r="F105" s="1">
-        <v>1</v>
-      </c>
-      <c r="G105" s="2" t="s">
+      <c r="D123" s="1">
+        <v>142707</v>
+      </c>
+      <c r="F123" s="1">
+        <v>1</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="K105" s="3">
-        <v>1</v>
-      </c>
-      <c r="L105" s="1">
-        <v>0</v>
-      </c>
-      <c r="M105" s="1">
-        <v>0</v>
-      </c>
-      <c r="O105" s="1">
-        <v>0</v>
-      </c>
-      <c r="P105" s="1">
+      <c r="K123" s="3">
+        <v>1</v>
+      </c>
+      <c r="L123" s="1">
+        <v>0</v>
+      </c>
+      <c r="M123" s="1">
+        <v>0</v>
+      </c>
+      <c r="O123" s="1">
+        <v>0</v>
+      </c>
+      <c r="P123" s="1">
         <v>9999999</v>
       </c>
-      <c r="R105" s="1">
-        <v>0</v>
-      </c>
-      <c r="U105" t="s">
-        <v>73</v>
-      </c>
-      <c r="V105" t="s">
-        <v>73</v>
-      </c>
-      <c r="W105" t="s">
-        <v>73</v>
-      </c>
-      <c r="X105" s="3" t="s">
+      <c r="R123" s="1">
+        <v>0</v>
+      </c>
+      <c r="U123" t="s">
+        <v>73</v>
+      </c>
+      <c r="V123" t="s">
+        <v>73</v>
+      </c>
+      <c r="W123" t="s">
+        <v>73</v>
+      </c>
+      <c r="X123" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="Y105" s="3"/>
-      <c r="Z105" s="2"/>
-      <c r="AA105" s="6" t="s">
+      <c r="Y123" s="3"/>
+      <c r="Z123" s="2"/>
+      <c r="AA123" s="6" t="s">
         <v>280</v>
       </c>
     </row>

--- a/hauntedparadise/Excels/Item_道具表.xlsx
+++ b/hauntedparadise/Excels/Item_道具表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\hauntedparadise\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFFA698-A059-4EC7-AE7C-B9C5AFF2810A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE25E6EC-4376-43B9-A55A-20591D9DC5AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="395">
   <si>
     <t>int</t>
   </si>
@@ -1305,6 +1305,9 @@
   <si>
     <t>BuildingDesc_0001</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildingDesc_0001</t>
   </si>
 </sst>
 </file>
@@ -1993,8 +1996,8 @@
   <dimension ref="A1:AH123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D105" sqref="D105"/>
+      <pane ySplit="3" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I103" sqref="I103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -8694,7 +8697,7 @@
     </row>
     <row r="103" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
-        <v>10001</v>
+        <v>20001</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>392</v>
@@ -8710,6 +8713,9 @@
       </c>
       <c r="G103" s="2" t="s">
         <v>393</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>394</v>
       </c>
       <c r="K103" s="1">
         <v>1</v>
@@ -8748,7 +8754,7 @@
       </c>
       <c r="AB103">
         <f>A103</f>
-        <v>10001</v>
+        <v>20001</v>
       </c>
       <c r="AC103" s="11" t="s">
         <v>391</v>

--- a/hauntedparadise/Excels/Item_道具表.xlsx
+++ b/hauntedparadise/Excels/Item_道具表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\hauntedparadise\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE25E6EC-4376-43B9-A55A-20591D9DC5AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739FCA47-D5A4-499F-92B2-F75B26B68274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1304,10 +1304,9 @@
   </si>
   <si>
     <t>BuildingDesc_0001</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuildingDesc_0001</t>
+  </si>
+  <si>
+    <t>BuildingName_0001</t>
   </si>
 </sst>
 </file>
@@ -1996,8 +1995,8 @@
   <dimension ref="A1:AH123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I103" sqref="I103"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -8703,7 +8702,7 @@
         <v>392</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D103" s="4">
         <v>94289</v>
@@ -8712,10 +8711,10 @@
         <v>666</v>
       </c>
       <c r="G103" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="I103" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>394</v>
       </c>
       <c r="K103" s="1">
         <v>1</v>

--- a/hauntedparadise/Excels/Item_道具表.xlsx
+++ b/hauntedparadise/Excels/Item_道具表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\hauntedparadise\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739FCA47-D5A4-499F-92B2-F75B26B68274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A57F1A-4459-4EAF-8171-B4BBAE0634EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="472">
   <si>
     <t>int</t>
   </si>
@@ -1308,12 +1308,282 @@
   <si>
     <t>BuildingName_0001</t>
   </si>
+  <si>
+    <t>三角形木墙</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildingName_0002</t>
+  </si>
+  <si>
+    <t>BuildingDesc_0002</t>
+  </si>
+  <si>
+    <t>BuildingName_0003</t>
+  </si>
+  <si>
+    <t>BuildingName_0004</t>
+  </si>
+  <si>
+    <t>BuildingName_0005</t>
+  </si>
+  <si>
+    <t>BuildingName_0006</t>
+  </si>
+  <si>
+    <t>BuildingName_0007</t>
+  </si>
+  <si>
+    <t>BuildingName_0008</t>
+  </si>
+  <si>
+    <t>BuildingName_0009</t>
+  </si>
+  <si>
+    <t>BuildingDesc_0003</t>
+  </si>
+  <si>
+    <t>BuildingDesc_0004</t>
+  </si>
+  <si>
+    <t>BuildingDesc_0005</t>
+  </si>
+  <si>
+    <t>BuildingDesc_0006</t>
+  </si>
+  <si>
+    <t>BuildingDesc_0007</t>
+  </si>
+  <si>
+    <t>BuildingDesc_0008</t>
+  </si>
+  <si>
+    <t>BuildingDesc_0009</t>
+  </si>
+  <si>
+    <t>带窗木墙</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>带门木墙</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>木质楼梯</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>石墙</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>三角形石墙</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>带窗石墙</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>带门石墙</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>石质楼梯</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁墙</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>三角形铁墙</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>带窗铁墙</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>带门铁墙</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁质楼梯</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildingName_0002</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildingName_0010</t>
+  </si>
+  <si>
+    <t>BuildingName_0011</t>
+  </si>
+  <si>
+    <t>BuildingName_0012</t>
+  </si>
+  <si>
+    <t>BuildingName_0013</t>
+  </si>
+  <si>
+    <t>BuildingName_0014</t>
+  </si>
+  <si>
+    <t>BuildingName_0015</t>
+  </si>
+  <si>
+    <t>BuildingName_0016</t>
+  </si>
+  <si>
+    <t>BuildingName_0017</t>
+  </si>
+  <si>
+    <t>BuildingName_0018</t>
+  </si>
+  <si>
+    <t>BuildingName_0019</t>
+  </si>
+  <si>
+    <t>BuildingName_0020</t>
+  </si>
+  <si>
+    <t>BuildingDesc_0010</t>
+  </si>
+  <si>
+    <t>BuildingDesc_0011</t>
+  </si>
+  <si>
+    <t>BuildingDesc_0012</t>
+  </si>
+  <si>
+    <t>BuildingDesc_0013</t>
+  </si>
+  <si>
+    <t>BuildingDesc_0014</t>
+  </si>
+  <si>
+    <t>BuildingDesc_0015</t>
+  </si>
+  <si>
+    <t>BuildingDesc_0016</t>
+  </si>
+  <si>
+    <t>BuildingDesc_0017</t>
+  </si>
+  <si>
+    <t>BuildingDesc_0018</t>
+  </si>
+  <si>
+    <t>BuildingDesc_0019</t>
+  </si>
+  <si>
+    <t>BuildingDesc_0020</t>
+  </si>
+  <si>
+    <t>1D4BFDDE4E937CF7DDE66EAC89BDACB4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2D5DB1546D260B48679BA8005DB3AC2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>6B1526B4418408A72592D795E7428F08</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>EA5778AE44865A4FC11876B57EC19D7B</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>C37005F34A786291DC97CAA1294C28FE</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>4BA63F77432EA09F086E58B9A33D2C2A</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>4CCB38CA439759F114F015953ECFE0BA</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF70DA7C4DD64B268DD575A177CE8D47</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>C8C639064CA5D53BDB4CEF864457B5E2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>980E2E8F401CF83285E8DF8903E5DE0F</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>45886D0E400797DF4F3BFE999775D550</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3326ABC64AF5785CD0122A9DF4367EAD</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>7AE9AD3948452E7EFB0C9FAEB5AEF958</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>7B14E0B9471C9337028EA5B220CE46EC</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>9F9D62F7456CDCDE81ADCB9F1CE54B7D</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>B9CFCE31443D214C2FA3D8ADF77C84FC</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>4E17295443C89E2D9091E39F3E05D1B7</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>940FD71C476BABE9856314A3BFCF2898</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>A97F571E4FFDA8C804F327B3A2CAC1BC</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>金属墙</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>三角形金属墙</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>带窗金属墙</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>带门金属墙</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金属楼梯</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -1368,6 +1638,13 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1992,17 +2269,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH123"/>
+  <dimension ref="A1:AH128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G103" sqref="G103"/>
+      <pane ySplit="3" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.375" style="1" customWidth="1"/>
     <col min="4" max="5" width="8.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" style="1" customWidth="1"/>
@@ -2021,7 +2298,7 @@
     <col min="24" max="26" width="16.375" style="1" customWidth="1"/>
     <col min="27" max="27" width="21.75" style="1" customWidth="1"/>
     <col min="28" max="28" width="10.375" style="1" customWidth="1"/>
-    <col min="29" max="29" width="28.5" customWidth="1"/>
+    <col min="29" max="29" width="38.125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="10.375" style="1" customWidth="1"/>
     <col min="31" max="31" width="36.625" style="1" customWidth="1"/>
     <col min="32" max="33" width="10.375" style="1" customWidth="1"/>
@@ -8762,42 +9039,1133 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A104" s="1">
+        <v>20002</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="D104" s="1">
+        <v>197995</v>
+      </c>
+      <c r="F104" s="1">
+        <v>666</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="K104" s="1">
+        <v>1</v>
+      </c>
+      <c r="L104" s="1">
+        <v>0</v>
+      </c>
+      <c r="M104" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O104" s="1">
+        <v>1</v>
+      </c>
+      <c r="P104" s="1">
+        <v>10</v>
+      </c>
+      <c r="R104" s="1">
+        <v>1</v>
+      </c>
+      <c r="U104" t="s">
+        <v>73</v>
+      </c>
+      <c r="V104" t="s">
+        <v>73</v>
+      </c>
+      <c r="W104" t="s">
+        <v>73</v>
+      </c>
+      <c r="X104" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y104" s="3"/>
+      <c r="Z104" s="2"/>
+      <c r="AA104" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB104">
+        <f>A104</f>
+        <v>20002</v>
+      </c>
+      <c r="AC104" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="AE104" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A105" s="1">
+        <v>20003</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D105" s="1">
+        <v>54773</v>
+      </c>
+      <c r="F105" s="1">
+        <v>666</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="K105" s="1">
+        <v>1</v>
+      </c>
+      <c r="L105" s="1">
+        <v>0</v>
+      </c>
+      <c r="M105" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O105" s="1">
+        <v>1</v>
+      </c>
+      <c r="P105" s="1">
+        <v>10</v>
+      </c>
+      <c r="R105" s="1">
+        <v>1</v>
+      </c>
+      <c r="U105" t="s">
+        <v>73</v>
+      </c>
+      <c r="V105" t="s">
+        <v>73</v>
+      </c>
+      <c r="W105" t="s">
+        <v>73</v>
+      </c>
+      <c r="X105" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y105" s="3"/>
+      <c r="Z105" s="2"/>
+      <c r="AA105" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB105">
+        <f t="shared" ref="AB105:AB112" si="0">A105</f>
+        <v>20003</v>
+      </c>
+      <c r="AC105" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="AE105" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A106" s="1">
+        <v>20004</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D106" s="1">
+        <v>54765</v>
+      </c>
+      <c r="F106" s="1">
+        <v>666</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="K106" s="1">
+        <v>1</v>
+      </c>
+      <c r="L106" s="1">
+        <v>0</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O106" s="1">
+        <v>1</v>
+      </c>
+      <c r="P106" s="1">
+        <v>10</v>
+      </c>
+      <c r="R106" s="1">
+        <v>1</v>
+      </c>
+      <c r="U106" t="s">
+        <v>73</v>
+      </c>
+      <c r="V106" t="s">
+        <v>73</v>
+      </c>
+      <c r="W106" t="s">
+        <v>73</v>
+      </c>
+      <c r="X106" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y106" s="3"/>
+      <c r="Z106" s="2"/>
+      <c r="AA106" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB106">
+        <f t="shared" si="0"/>
+        <v>20004</v>
+      </c>
+      <c r="AC106" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="AE106" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A107" s="1">
+        <v>20005</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D107" s="1">
+        <v>92681</v>
+      </c>
+      <c r="F107" s="1">
+        <v>666</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="K107" s="1">
+        <v>1</v>
+      </c>
+      <c r="L107" s="1">
+        <v>0</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O107" s="1">
+        <v>1</v>
+      </c>
+      <c r="P107" s="1">
+        <v>10</v>
+      </c>
+      <c r="R107" s="1">
+        <v>1</v>
+      </c>
+      <c r="U107" t="s">
+        <v>73</v>
+      </c>
+      <c r="V107" t="s">
+        <v>73</v>
+      </c>
+      <c r="W107" t="s">
+        <v>73</v>
+      </c>
+      <c r="X107" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y107" s="3"/>
+      <c r="Z107" s="2"/>
+      <c r="AA107" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB107">
+        <f t="shared" si="0"/>
+        <v>20005</v>
+      </c>
+      <c r="AC107" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="AE107" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A108" s="1">
+        <v>20006</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D108" s="1">
+        <v>95253</v>
+      </c>
+      <c r="F108" s="1">
+        <v>666</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="K108" s="1">
+        <v>1</v>
+      </c>
+      <c r="L108" s="1">
+        <v>0</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O108" s="1">
+        <v>1</v>
+      </c>
+      <c r="P108" s="1">
+        <v>10</v>
+      </c>
+      <c r="R108" s="1">
+        <v>1</v>
+      </c>
+      <c r="U108" t="s">
+        <v>73</v>
+      </c>
+      <c r="V108" t="s">
+        <v>73</v>
+      </c>
+      <c r="W108" t="s">
+        <v>73</v>
+      </c>
+      <c r="X108" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y108" s="3"/>
+      <c r="Z108" s="2"/>
+      <c r="AA108" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB108">
+        <f t="shared" si="0"/>
+        <v>20006</v>
+      </c>
+      <c r="AC108" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="AE108" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A109" s="1">
+        <v>20007</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D109" s="1">
+        <v>95370</v>
+      </c>
+      <c r="F109" s="1">
+        <v>666</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="K109" s="1">
+        <v>1</v>
+      </c>
+      <c r="L109" s="1">
+        <v>0</v>
+      </c>
+      <c r="M109" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O109" s="1">
+        <v>1</v>
+      </c>
+      <c r="P109" s="1">
+        <v>10</v>
+      </c>
+      <c r="R109" s="1">
+        <v>1</v>
+      </c>
+      <c r="U109" t="s">
+        <v>73</v>
+      </c>
+      <c r="V109" t="s">
+        <v>73</v>
+      </c>
+      <c r="W109" t="s">
+        <v>73</v>
+      </c>
+      <c r="X109" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y109" s="3"/>
+      <c r="Z109" s="2"/>
+      <c r="AA109" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB109">
+        <f t="shared" si="0"/>
+        <v>20007</v>
+      </c>
+      <c r="AC109" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="AE109" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A110" s="1">
+        <v>20008</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D110" s="1">
+        <v>197949</v>
+      </c>
+      <c r="F110" s="1">
+        <v>666</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="K110" s="1">
+        <v>1</v>
+      </c>
+      <c r="L110" s="1">
+        <v>0</v>
+      </c>
+      <c r="M110" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O110" s="1">
+        <v>1</v>
+      </c>
+      <c r="P110" s="1">
+        <v>10</v>
+      </c>
+      <c r="R110" s="1">
+        <v>1</v>
+      </c>
+      <c r="U110" t="s">
+        <v>73</v>
+      </c>
+      <c r="V110" t="s">
+        <v>73</v>
+      </c>
+      <c r="W110" t="s">
+        <v>73</v>
+      </c>
+      <c r="X110" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y110" s="3"/>
+      <c r="Z110" s="2"/>
+      <c r="AA110" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB110">
+        <f t="shared" si="0"/>
+        <v>20008</v>
+      </c>
+      <c r="AC110" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="AE110" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A111" s="1">
+        <v>20009</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D111" s="1">
+        <v>53946</v>
+      </c>
+      <c r="F111" s="1">
+        <v>666</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="K111" s="1">
+        <v>1</v>
+      </c>
+      <c r="L111" s="1">
+        <v>0</v>
+      </c>
+      <c r="M111" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O111" s="1">
+        <v>1</v>
+      </c>
+      <c r="P111" s="1">
+        <v>10</v>
+      </c>
+      <c r="R111" s="1">
+        <v>1</v>
+      </c>
+      <c r="U111" t="s">
+        <v>73</v>
+      </c>
+      <c r="V111" t="s">
+        <v>73</v>
+      </c>
+      <c r="W111" t="s">
+        <v>73</v>
+      </c>
+      <c r="X111" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y111" s="3"/>
+      <c r="Z111" s="2"/>
+      <c r="AA111" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB111">
+        <f t="shared" si="0"/>
+        <v>20009</v>
+      </c>
+      <c r="AC111" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="AE111" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A112" s="1">
+        <v>20010</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D112" s="1">
+        <v>93264</v>
+      </c>
+      <c r="F112" s="1">
+        <v>666</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="K112" s="1">
+        <v>1</v>
+      </c>
+      <c r="L112" s="1">
+        <v>0</v>
+      </c>
+      <c r="M112" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O112" s="1">
+        <v>1</v>
+      </c>
+      <c r="P112" s="1">
+        <v>10</v>
+      </c>
+      <c r="R112" s="1">
+        <v>1</v>
+      </c>
+      <c r="U112" t="s">
+        <v>73</v>
+      </c>
+      <c r="V112" t="s">
+        <v>73</v>
+      </c>
+      <c r="W112" t="s">
+        <v>73</v>
+      </c>
+      <c r="X112" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y112" s="3"/>
+      <c r="Z112" s="2"/>
+      <c r="AA112" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB112">
+        <f t="shared" si="0"/>
+        <v>20010</v>
+      </c>
+      <c r="AC112" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="AE112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A113" s="1">
+        <v>20011</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D113" s="1">
+        <v>78438</v>
+      </c>
+      <c r="F113" s="1">
+        <v>666</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="K113" s="1">
+        <v>1</v>
+      </c>
+      <c r="L113" s="1">
+        <v>0</v>
+      </c>
+      <c r="M113" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O113" s="1">
+        <v>1</v>
+      </c>
+      <c r="P113" s="1">
+        <v>10</v>
+      </c>
+      <c r="R113" s="1">
+        <v>1</v>
+      </c>
+      <c r="U113" t="s">
+        <v>73</v>
+      </c>
+      <c r="V113" t="s">
+        <v>73</v>
+      </c>
+      <c r="W113" t="s">
+        <v>73</v>
+      </c>
+      <c r="X113" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y113" s="3"/>
+      <c r="Z113" s="2"/>
+      <c r="AA113" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB113">
+        <f>A113</f>
+        <v>20011</v>
+      </c>
+      <c r="AC113" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="AE113" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A114" s="1">
+        <v>20012</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D114" s="1">
+        <v>197995</v>
+      </c>
+      <c r="F114" s="1">
+        <v>666</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K114" s="1">
+        <v>1</v>
+      </c>
+      <c r="L114" s="1">
+        <v>0</v>
+      </c>
+      <c r="M114" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O114" s="1">
+        <v>1</v>
+      </c>
+      <c r="P114" s="1">
+        <v>10</v>
+      </c>
+      <c r="R114" s="1">
+        <v>1</v>
+      </c>
+      <c r="U114" t="s">
+        <v>73</v>
+      </c>
+      <c r="V114" t="s">
+        <v>73</v>
+      </c>
+      <c r="W114" t="s">
+        <v>73</v>
+      </c>
+      <c r="X114" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y114" s="3"/>
+      <c r="Z114" s="2"/>
+      <c r="AA114" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB114">
+        <f>A114</f>
+        <v>20012</v>
+      </c>
+      <c r="AC114" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="AE114" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A115" s="1">
+        <v>20013</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D115" s="1">
+        <v>197949</v>
+      </c>
+      <c r="F115" s="1">
+        <v>666</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="K115" s="1">
+        <v>1</v>
+      </c>
+      <c r="L115" s="1">
+        <v>0</v>
+      </c>
+      <c r="M115" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O115" s="1">
+        <v>1</v>
+      </c>
+      <c r="P115" s="1">
+        <v>10</v>
+      </c>
+      <c r="R115" s="1">
+        <v>1</v>
+      </c>
+      <c r="U115" t="s">
+        <v>73</v>
+      </c>
+      <c r="V115" t="s">
+        <v>73</v>
+      </c>
+      <c r="W115" t="s">
+        <v>73</v>
+      </c>
+      <c r="X115" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y115" s="3"/>
+      <c r="Z115" s="2"/>
+      <c r="AA115" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB115">
+        <f t="shared" ref="AB115:AB121" si="1">A115</f>
+        <v>20013</v>
+      </c>
+      <c r="AC115" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="AE115" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A116" s="1">
+        <v>20014</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D116" s="1">
+        <v>197995</v>
+      </c>
+      <c r="F116" s="1">
+        <v>666</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="K116" s="1">
+        <v>1</v>
+      </c>
+      <c r="L116" s="1">
+        <v>0</v>
+      </c>
+      <c r="M116" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O116" s="1">
+        <v>1</v>
+      </c>
+      <c r="P116" s="1">
+        <v>10</v>
+      </c>
+      <c r="R116" s="1">
+        <v>1</v>
+      </c>
+      <c r="U116" t="s">
+        <v>73</v>
+      </c>
+      <c r="V116" t="s">
+        <v>73</v>
+      </c>
+      <c r="W116" t="s">
+        <v>73</v>
+      </c>
+      <c r="X116" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y116" s="3"/>
+      <c r="Z116" s="2"/>
+      <c r="AA116" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB116">
+        <f t="shared" si="1"/>
+        <v>20014</v>
+      </c>
+      <c r="AC116" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="AE116" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A117" s="1">
+        <v>20015</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="D117" s="1">
+        <v>104072</v>
+      </c>
+      <c r="F117" s="1">
+        <v>666</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="K117" s="1">
+        <v>1</v>
+      </c>
+      <c r="L117" s="1">
+        <v>0</v>
+      </c>
+      <c r="M117" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O117" s="1">
+        <v>1</v>
+      </c>
+      <c r="P117" s="1">
+        <v>10</v>
+      </c>
+      <c r="R117" s="1">
+        <v>1</v>
+      </c>
+      <c r="U117" t="s">
+        <v>73</v>
+      </c>
+      <c r="V117" t="s">
+        <v>73</v>
+      </c>
+      <c r="W117" t="s">
+        <v>73</v>
+      </c>
+      <c r="X117" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y117" s="3"/>
+      <c r="Z117" s="2"/>
+      <c r="AA117" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB117">
+        <f t="shared" si="1"/>
+        <v>20015</v>
+      </c>
+      <c r="AC117" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="AE117" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A118" s="1">
+        <v>20016</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D118" s="1">
+        <v>76593</v>
+      </c>
+      <c r="F118" s="1">
+        <v>666</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="K118" s="1">
+        <v>1</v>
+      </c>
+      <c r="L118" s="1">
+        <v>0</v>
+      </c>
+      <c r="M118" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O118" s="1">
+        <v>1</v>
+      </c>
+      <c r="P118" s="1">
+        <v>10</v>
+      </c>
+      <c r="R118" s="1">
+        <v>1</v>
+      </c>
+      <c r="U118" t="s">
+        <v>73</v>
+      </c>
+      <c r="V118" t="s">
+        <v>73</v>
+      </c>
+      <c r="W118" t="s">
+        <v>73</v>
+      </c>
+      <c r="X118" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y118" s="3"/>
+      <c r="Z118" s="2"/>
+      <c r="AA118" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB118">
+        <f t="shared" si="1"/>
+        <v>20016</v>
+      </c>
+      <c r="AC118" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="AE118" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A119" s="1">
+        <v>20017</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D119" s="1">
+        <v>197995</v>
+      </c>
+      <c r="F119" s="1">
+        <v>666</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="K119" s="1">
+        <v>1</v>
+      </c>
+      <c r="L119" s="1">
+        <v>0</v>
+      </c>
+      <c r="M119" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O119" s="1">
+        <v>1</v>
+      </c>
+      <c r="P119" s="1">
+        <v>10</v>
+      </c>
+      <c r="R119" s="1">
+        <v>1</v>
+      </c>
+      <c r="U119" t="s">
+        <v>73</v>
+      </c>
+      <c r="V119" t="s">
+        <v>73</v>
+      </c>
+      <c r="W119" t="s">
+        <v>73</v>
+      </c>
+      <c r="X119" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y119" s="3"/>
+      <c r="Z119" s="2"/>
+      <c r="AA119" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB119">
+        <f t="shared" si="1"/>
+        <v>20017</v>
+      </c>
+      <c r="AC119" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="AE119" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
-        <v>100001</v>
+        <v>20018</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>386</v>
+        <v>469</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>383</v>
+        <v>434</v>
       </c>
       <c r="D120" s="1">
-        <v>294359</v>
+        <v>197949</v>
       </c>
       <c r="F120" s="1">
-        <v>1</v>
+        <v>666</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="K120" s="3">
+        <v>434</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="K120" s="1">
         <v>1</v>
       </c>
       <c r="L120" s="1">
         <v>0</v>
       </c>
-      <c r="M120" s="1">
-        <v>0</v>
+      <c r="M120" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="O120" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P120" s="1">
-        <v>9999999</v>
+        <v>10</v>
       </c>
       <c r="R120" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U120" t="s">
         <v>73</v>
@@ -8813,46 +10181,59 @@
       </c>
       <c r="Y120" s="3"/>
       <c r="Z120" s="2"/>
-      <c r="AA120" s="6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA120" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB120">
+        <f t="shared" si="1"/>
+        <v>20018</v>
+      </c>
+      <c r="AC120" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="AE120" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
-        <v>100002</v>
+        <v>20019</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>387</v>
+        <v>470</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>384</v>
+        <v>435</v>
       </c>
       <c r="D121" s="1">
-        <v>142718</v>
+        <v>197995</v>
       </c>
       <c r="F121" s="1">
-        <v>1</v>
+        <v>666</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="K121" s="3">
+        <v>435</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="K121" s="1">
         <v>1</v>
       </c>
       <c r="L121" s="1">
         <v>0</v>
       </c>
-      <c r="M121" s="1">
-        <v>0</v>
+      <c r="M121" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="O121" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P121" s="1">
-        <v>9999999</v>
+        <v>10</v>
       </c>
       <c r="R121" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U121" t="s">
         <v>73</v>
@@ -8868,46 +10249,59 @@
       </c>
       <c r="Y121" s="3"/>
       <c r="Z121" s="2"/>
-      <c r="AA121" s="6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA121" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB121">
+        <f t="shared" si="1"/>
+        <v>20019</v>
+      </c>
+      <c r="AC121" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="AE121" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
-        <v>100003</v>
+        <v>20020</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>388</v>
+        <v>471</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>385</v>
+        <v>436</v>
       </c>
       <c r="D122" s="1">
-        <v>142695</v>
+        <v>141417</v>
       </c>
       <c r="F122" s="1">
-        <v>1</v>
+        <v>666</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="K122" s="3">
+        <v>436</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="K122" s="1">
         <v>1</v>
       </c>
       <c r="L122" s="1">
         <v>0</v>
       </c>
-      <c r="M122" s="1">
-        <v>0</v>
+      <c r="M122" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="O122" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P122" s="1">
-        <v>9999999</v>
+        <v>10</v>
       </c>
       <c r="R122" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U122" t="s">
         <v>73</v>
@@ -8923,62 +10317,237 @@
       </c>
       <c r="Y122" s="3"/>
       <c r="Z122" s="2"/>
-      <c r="AA122" s="6" t="s">
+      <c r="AA122" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB122">
+        <f t="shared" ref="AB122" si="2">A122</f>
+        <v>20020</v>
+      </c>
+      <c r="AC122" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="AE122" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A125" s="1">
+        <v>100001</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D125" s="1">
+        <v>294359</v>
+      </c>
+      <c r="F125" s="1">
+        <v>1</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="K125" s="3">
+        <v>1</v>
+      </c>
+      <c r="L125" s="1">
+        <v>0</v>
+      </c>
+      <c r="M125" s="1">
+        <v>0</v>
+      </c>
+      <c r="O125" s="1">
+        <v>0</v>
+      </c>
+      <c r="P125" s="1">
+        <v>9999999</v>
+      </c>
+      <c r="R125" s="1">
+        <v>0</v>
+      </c>
+      <c r="U125" t="s">
+        <v>73</v>
+      </c>
+      <c r="V125" t="s">
+        <v>73</v>
+      </c>
+      <c r="W125" t="s">
+        <v>73</v>
+      </c>
+      <c r="X125" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y125" s="3"/>
+      <c r="Z125" s="2"/>
+      <c r="AA125" s="6" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A123" s="1">
+    <row r="126" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A126" s="1">
+        <v>100002</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D126" s="1">
+        <v>142718</v>
+      </c>
+      <c r="F126" s="1">
+        <v>1</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="K126" s="3">
+        <v>1</v>
+      </c>
+      <c r="L126" s="1">
+        <v>0</v>
+      </c>
+      <c r="M126" s="1">
+        <v>0</v>
+      </c>
+      <c r="O126" s="1">
+        <v>0</v>
+      </c>
+      <c r="P126" s="1">
+        <v>9999999</v>
+      </c>
+      <c r="R126" s="1">
+        <v>0</v>
+      </c>
+      <c r="U126" t="s">
+        <v>73</v>
+      </c>
+      <c r="V126" t="s">
+        <v>73</v>
+      </c>
+      <c r="W126" t="s">
+        <v>73</v>
+      </c>
+      <c r="X126" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y126" s="3"/>
+      <c r="Z126" s="2"/>
+      <c r="AA126" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="127" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A127" s="1">
+        <v>100003</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D127" s="1">
+        <v>142695</v>
+      </c>
+      <c r="F127" s="1">
+        <v>1</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="K127" s="3">
+        <v>1</v>
+      </c>
+      <c r="L127" s="1">
+        <v>0</v>
+      </c>
+      <c r="M127" s="1">
+        <v>0</v>
+      </c>
+      <c r="O127" s="1">
+        <v>0</v>
+      </c>
+      <c r="P127" s="1">
+        <v>9999999</v>
+      </c>
+      <c r="R127" s="1">
+        <v>0</v>
+      </c>
+      <c r="U127" t="s">
+        <v>73</v>
+      </c>
+      <c r="V127" t="s">
+        <v>73</v>
+      </c>
+      <c r="W127" t="s">
+        <v>73</v>
+      </c>
+      <c r="X127" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y127" s="3"/>
+      <c r="Z127" s="2"/>
+      <c r="AA127" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="128" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A128" s="1">
         <v>100004</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B128" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C128" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="D123" s="1">
+      <c r="D128" s="1">
         <v>142707</v>
       </c>
-      <c r="F123" s="1">
-        <v>1</v>
-      </c>
-      <c r="G123" s="2" t="s">
+      <c r="F128" s="1">
+        <v>1</v>
+      </c>
+      <c r="G128" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="K123" s="3">
-        <v>1</v>
-      </c>
-      <c r="L123" s="1">
-        <v>0</v>
-      </c>
-      <c r="M123" s="1">
-        <v>0</v>
-      </c>
-      <c r="O123" s="1">
-        <v>0</v>
-      </c>
-      <c r="P123" s="1">
+      <c r="K128" s="3">
+        <v>1</v>
+      </c>
+      <c r="L128" s="1">
+        <v>0</v>
+      </c>
+      <c r="M128" s="1">
+        <v>0</v>
+      </c>
+      <c r="O128" s="1">
+        <v>0</v>
+      </c>
+      <c r="P128" s="1">
         <v>9999999</v>
       </c>
-      <c r="R123" s="1">
-        <v>0</v>
-      </c>
-      <c r="U123" t="s">
-        <v>73</v>
-      </c>
-      <c r="V123" t="s">
-        <v>73</v>
-      </c>
-      <c r="W123" t="s">
-        <v>73</v>
-      </c>
-      <c r="X123" s="3" t="s">
+      <c r="R128" s="1">
+        <v>0</v>
+      </c>
+      <c r="U128" t="s">
+        <v>73</v>
+      </c>
+      <c r="V128" t="s">
+        <v>73</v>
+      </c>
+      <c r="W128" t="s">
+        <v>73</v>
+      </c>
+      <c r="X128" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="Y123" s="3"/>
-      <c r="Z123" s="2"/>
-      <c r="AA123" s="6" t="s">
+      <c r="Y128" s="3"/>
+      <c r="Z128" s="2"/>
+      <c r="AA128" s="6" t="s">
         <v>280</v>
       </c>
     </row>
